--- a/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,22 +629,22 @@
         <v>1.005276975179548</v>
       </c>
       <c r="D3">
+        <v>1.07464665953904</v>
+      </c>
+      <c r="E3">
+        <v>0.9806354027008221</v>
+      </c>
+      <c r="F3">
+        <v>0.9911759234303122</v>
+      </c>
+      <c r="G3">
+        <v>1.004971985811638</v>
+      </c>
+      <c r="H3">
         <v>1.03600041320105</v>
       </c>
-      <c r="E3">
-        <v>1.004971985811638</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.005276975179548</v>
-      </c>
-      <c r="G3">
-        <v>1.07464665953904</v>
-      </c>
-      <c r="H3">
-        <v>0.9806354027008221</v>
-      </c>
-      <c r="I3">
-        <v>0.9911759234303122</v>
       </c>
       <c r="J3">
         <v>1.03600041320105</v>
@@ -728,7 +680,7 @@
         <v>1.015451226643735</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,22 +691,22 @@
         <v>1.005414003669555</v>
       </c>
       <c r="D4">
+        <v>1.141933910465841</v>
+      </c>
+      <c r="E4">
+        <v>0.9620644023438698</v>
+      </c>
+      <c r="F4">
+        <v>0.9845458942831455</v>
+      </c>
+      <c r="G4">
+        <v>1.012508622009755</v>
+      </c>
+      <c r="H4">
         <v>1.067304768508322</v>
       </c>
-      <c r="E4">
-        <v>1.012508622009755</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
         <v>1.005414003669555</v>
-      </c>
-      <c r="G4">
-        <v>1.141933910465841</v>
-      </c>
-      <c r="H4">
-        <v>0.9620644023438698</v>
-      </c>
-      <c r="I4">
-        <v>0.9845458942831455</v>
       </c>
       <c r="J4">
         <v>1.067304768508322</v>
@@ -790,7 +742,7 @@
         <v>1.028961933546748</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,22 +753,22 @@
         <v>1.024006648125157</v>
       </c>
       <c r="D5">
+        <v>1.280146591999447</v>
+      </c>
+      <c r="E5">
+        <v>0.9192181716550686</v>
+      </c>
+      <c r="F5">
+        <v>0.9629130905176178</v>
+      </c>
+      <c r="G5">
+        <v>1.025447724311187</v>
+      </c>
+      <c r="H5">
         <v>1.136261537240609</v>
       </c>
-      <c r="E5">
-        <v>1.025447724311187</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
         <v>1.024006648125157</v>
-      </c>
-      <c r="G5">
-        <v>1.280146591999447</v>
-      </c>
-      <c r="H5">
-        <v>0.9192181716550686</v>
-      </c>
-      <c r="I5">
-        <v>0.9629130905176178</v>
       </c>
       <c r="J5">
         <v>1.136261537240609</v>
@@ -852,7 +804,7 @@
         <v>1.057998960641515</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,22 +815,22 @@
         <v>1.111510178399358</v>
       </c>
       <c r="D6">
+        <v>1.503450978919303</v>
+      </c>
+      <c r="E6">
+        <v>0.8298265858005867</v>
+      </c>
+      <c r="F6">
+        <v>0.9246304468032863</v>
+      </c>
+      <c r="G6">
+        <v>0.9752732093789623</v>
+      </c>
+      <c r="H6">
         <v>1.276797081617945</v>
       </c>
-      <c r="E6">
-        <v>0.9752732093789624</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
         <v>1.111510178399358</v>
-      </c>
-      <c r="G6">
-        <v>1.503450978919303</v>
-      </c>
-      <c r="H6">
-        <v>0.8298265858005867</v>
-      </c>
-      <c r="I6">
-        <v>0.9246304468032864</v>
       </c>
       <c r="J6">
         <v>1.276797081617945</v>
@@ -887,7 +839,7 @@
         <v>1.111510178399358</v>
       </c>
       <c r="L6">
-        <v>0.9752732093789624</v>
+        <v>0.9752732093789623</v>
       </c>
       <c r="M6">
         <v>1.126035145498454</v>
@@ -914,7 +866,7 @@
         <v>1.103581413486574</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,40 +877,40 @@
         <v>1.006521569453629</v>
       </c>
       <c r="D7">
-        <v>1.00104895295471</v>
+        <v>0.9985761432212134</v>
       </c>
       <c r="E7">
-        <v>0.9988869136085736</v>
+        <v>0.999068316633014</v>
       </c>
       <c r="F7">
+        <v>0.9995430243973151</v>
+      </c>
+      <c r="G7">
+        <v>0.998886913608574</v>
+      </c>
+      <c r="H7">
+        <v>1.001048952954709</v>
+      </c>
+      <c r="I7">
         <v>1.006521569453629</v>
       </c>
-      <c r="G7">
-        <v>0.9985761432212137</v>
-      </c>
-      <c r="H7">
-        <v>0.9990683166330142</v>
-      </c>
-      <c r="I7">
-        <v>0.9995430243973148</v>
-      </c>
       <c r="J7">
-        <v>1.00104895295471</v>
+        <v>1.001048952954709</v>
       </c>
       <c r="K7">
         <v>1.006521569453629</v>
       </c>
       <c r="L7">
-        <v>0.9988869136085736</v>
+        <v>0.998886913608574</v>
       </c>
       <c r="M7">
-        <v>0.9999679332816417</v>
+        <v>0.9999679332816416</v>
       </c>
       <c r="N7">
-        <v>0.9999679332816417</v>
+        <v>0.9999679332816416</v>
       </c>
       <c r="O7">
-        <v>0.9996680610654325</v>
+        <v>0.9996680610654324</v>
       </c>
       <c r="P7">
         <v>1.002152478672304</v>
@@ -976,7 +928,7 @@
         <v>1.000607486711409</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,37 +939,37 @@
         <v>1.013853706632245</v>
       </c>
       <c r="D8">
-        <v>1.005798931538654</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="E8">
-        <v>0.9964841532641274</v>
+        <v>0.998339724328008</v>
       </c>
       <c r="F8">
+        <v>0.9990729132372146</v>
+      </c>
+      <c r="G8">
+        <v>0.9964841532641266</v>
+      </c>
+      <c r="H8">
+        <v>1.005798931538653</v>
+      </c>
+      <c r="I8">
         <v>1.013853706632245</v>
       </c>
-      <c r="G8">
-        <v>0.9964548033553059</v>
-      </c>
-      <c r="H8">
-        <v>0.9983397243280075</v>
-      </c>
-      <c r="I8">
-        <v>0.9990729132372156</v>
-      </c>
       <c r="J8">
-        <v>1.005798931538654</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="K8">
         <v>1.013853706632245</v>
       </c>
       <c r="L8">
-        <v>0.9964841532641274</v>
+        <v>0.9964841532641266</v>
       </c>
       <c r="M8">
-        <v>1.001141542401391</v>
+        <v>1.00114154240139</v>
       </c>
       <c r="N8">
-        <v>1.001141542401391</v>
+        <v>1.00114154240139</v>
       </c>
       <c r="O8">
         <v>1.000207603043596</v>
@@ -1029,16 +981,16 @@
         <v>1.005378930478342</v>
       </c>
       <c r="R8">
-        <v>1.007497624516818</v>
+        <v>1.007497624516817</v>
       </c>
       <c r="S8">
-        <v>1.007497624516818</v>
+        <v>1.007497624516817</v>
       </c>
       <c r="T8">
         <v>1.001667372059259</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,22 +1001,22 @@
         <v>1.017333196793282</v>
       </c>
       <c r="D9">
+        <v>0.9953877755528782</v>
+      </c>
+      <c r="E9">
+        <v>0.9979134023610984</v>
+      </c>
+      <c r="F9">
+        <v>0.9979261814041912</v>
+      </c>
+      <c r="G9">
+        <v>0.9954910294956575</v>
+      </c>
+      <c r="H9">
         <v>1.014034029728343</v>
       </c>
-      <c r="E9">
-        <v>0.9954910294956575</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.017333196793282</v>
-      </c>
-      <c r="G9">
-        <v>0.9953877755528782</v>
-      </c>
-      <c r="H9">
-        <v>0.9979134023610984</v>
-      </c>
-      <c r="I9">
-        <v>0.9979261814041912</v>
       </c>
       <c r="J9">
         <v>1.014034029728343</v>
@@ -1100,7 +1052,7 @@
         <v>1.003014269222575</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,22 +1063,22 @@
         <v>1.041339981610421</v>
       </c>
       <c r="D10">
+        <v>0.9902930159431937</v>
+      </c>
+      <c r="E10">
+        <v>0.9946605381501319</v>
+      </c>
+      <c r="F10">
+        <v>0.9956407471254869</v>
+      </c>
+      <c r="G10">
+        <v>0.9901345802959458</v>
+      </c>
+      <c r="H10">
         <v>1.024586214661496</v>
       </c>
-      <c r="E10">
-        <v>0.9901345802959458</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
         <v>1.041339981610421</v>
-      </c>
-      <c r="G10">
-        <v>0.9902930159431937</v>
-      </c>
-      <c r="H10">
-        <v>0.9946605381501319</v>
-      </c>
-      <c r="I10">
-        <v>0.9956407471254869</v>
       </c>
       <c r="J10">
         <v>1.024586214661496</v>
@@ -1162,7 +1114,7 @@
         <v>1.006109179631113</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,22 +1125,22 @@
         <v>1.059869219165151</v>
       </c>
       <c r="D11">
+        <v>0.9841786959919395</v>
+      </c>
+      <c r="E11">
+        <v>0.9907554162013842</v>
+      </c>
+      <c r="F11">
+        <v>0.9931841348951113</v>
+      </c>
+      <c r="G11">
+        <v>0.9834437710370558</v>
+      </c>
+      <c r="H11">
         <v>1.059735053009184</v>
       </c>
-      <c r="E11">
-        <v>0.9834437710370559</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
         <v>1.059869219165151</v>
-      </c>
-      <c r="G11">
-        <v>0.9841786959919395</v>
-      </c>
-      <c r="H11">
-        <v>0.9907554162013839</v>
-      </c>
-      <c r="I11">
-        <v>0.9931841348951113</v>
       </c>
       <c r="J11">
         <v>1.059735053009184</v>
@@ -1197,7 +1149,7 @@
         <v>1.059869219165151</v>
       </c>
       <c r="L11">
-        <v>0.9834437710370559</v>
+        <v>0.9834437710370558</v>
       </c>
       <c r="M11">
         <v>1.02158941202312</v>
@@ -1224,7 +1176,7 @@
         <v>1.011861048383304</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,31 +1187,31 @@
         <v>0.4737304055118667</v>
       </c>
       <c r="D12">
-        <v>0.3218313991703866</v>
+        <v>0.6839215333004276</v>
       </c>
       <c r="E12">
-        <v>1.351068282767971</v>
+        <v>1.02046059657031</v>
       </c>
       <c r="F12">
+        <v>1.147339775608283</v>
+      </c>
+      <c r="G12">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="H12">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="I12">
         <v>0.4737304055118667</v>
       </c>
-      <c r="G12">
-        <v>0.6839215333004275</v>
-      </c>
-      <c r="H12">
-        <v>1.02046059657031</v>
-      </c>
-      <c r="I12">
-        <v>1.147339775608283</v>
-      </c>
       <c r="J12">
-        <v>0.3218313991703866</v>
+        <v>0.3218313991703864</v>
       </c>
       <c r="K12">
         <v>0.4737304055118667</v>
       </c>
       <c r="L12">
-        <v>1.351068282767971</v>
+        <v>1.351068282767972</v>
       </c>
       <c r="M12">
         <v>0.836449840969179</v>
@@ -1271,10 +1223,10 @@
         <v>0.8977867595028893</v>
       </c>
       <c r="P12">
+        <v>0.7155433624834081</v>
+      </c>
+      <c r="Q12">
         <v>0.7155433624834083</v>
-      </c>
-      <c r="Q12">
-        <v>0.7155433624834081</v>
       </c>
       <c r="R12">
         <v>0.6550901232405228</v>
@@ -1286,7 +1238,7 @@
         <v>0.8330586654882076</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,22 +1249,22 @@
         <v>1.552298692499595</v>
       </c>
       <c r="D13">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="E13">
+        <v>1.034762081401286</v>
+      </c>
+      <c r="F13">
+        <v>0.792883474536294</v>
+      </c>
+      <c r="G13">
+        <v>0.4915436637177757</v>
+      </c>
+      <c r="H13">
         <v>1.713282696435615</v>
       </c>
-      <c r="E13">
-        <v>0.4915436637177756</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
         <v>1.552298692499595</v>
-      </c>
-      <c r="G13">
-        <v>1.5747027242848</v>
-      </c>
-      <c r="H13">
-        <v>1.034762081401286</v>
-      </c>
-      <c r="I13">
-        <v>0.792883474536294</v>
       </c>
       <c r="J13">
         <v>1.713282696435615</v>
@@ -1321,7 +1273,7 @@
         <v>1.552298692499595</v>
       </c>
       <c r="L13">
-        <v>0.4915436637177756</v>
+        <v>0.4915436637177757</v>
       </c>
       <c r="M13">
         <v>1.102413180076695</v>
@@ -1348,7 +1300,7 @@
         <v>1.193245555479227</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.04487560622477395</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="D14">
-        <v>4.958971238726513</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="E14">
-        <v>0.2097497719445351</v>
+        <v>2.452011665041457</v>
       </c>
       <c r="F14">
-        <v>0.04487560622477395</v>
+        <v>0.1665402680163802</v>
       </c>
       <c r="G14">
-        <v>0.000597170477148994</v>
+        <v>0.209749771944535</v>
       </c>
       <c r="H14">
-        <v>2.452011665041457</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="I14">
-        <v>0.1665402680163803</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="J14">
-        <v>4.958971238726513</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="K14">
-        <v>0.04487560622477395</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="L14">
-        <v>0.2097497719445351</v>
+        <v>0.209749771944535</v>
       </c>
       <c r="M14">
         <v>2.584360505335524</v>
@@ -1410,7 +1362,7 @@
         <v>1.305457620071801</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,22 +1373,22 @@
         <v>0.6324805986825459</v>
       </c>
       <c r="D15">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="E15">
+        <v>1.558998625137756</v>
+      </c>
+      <c r="F15">
+        <v>0.9108226420960556</v>
+      </c>
+      <c r="G15">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="H15">
         <v>0.6311671708583744</v>
       </c>
-      <c r="E15">
-        <v>1.040952454476435</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.6324805986825459</v>
-      </c>
-      <c r="G15">
-        <v>0.07790154559647507</v>
-      </c>
-      <c r="H15">
-        <v>1.558998625137756</v>
-      </c>
-      <c r="I15">
-        <v>0.9108226420960556</v>
       </c>
       <c r="J15">
         <v>0.6311671708583744</v>
@@ -1472,7 +1424,7 @@
         <v>0.8087205061412738</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.009255423160632</v>
+        <v>1.062728947433483</v>
       </c>
       <c r="D16">
-        <v>0.9905167075192092</v>
+        <v>2.26116311508523</v>
       </c>
       <c r="E16">
-        <v>1.002367661560521</v>
+        <v>0.6553280412933028</v>
       </c>
       <c r="F16">
-        <v>1.009255423160632</v>
+        <v>0.8725297630802281</v>
       </c>
       <c r="G16">
-        <v>0.9856878131291257</v>
+        <v>1.101099253437838</v>
       </c>
       <c r="H16">
-        <v>0.9989831543793726</v>
+        <v>1.567051047594804</v>
       </c>
       <c r="I16">
-        <v>1.001493994137478</v>
+        <v>1.062728947433483</v>
       </c>
       <c r="J16">
-        <v>0.9905167075192092</v>
+        <v>1.567051047594804</v>
       </c>
       <c r="K16">
-        <v>1.009255423160632</v>
+        <v>1.062728947433483</v>
       </c>
       <c r="L16">
-        <v>1.002367661560521</v>
+        <v>1.101099253437838</v>
       </c>
       <c r="M16">
-        <v>0.996442184539865</v>
+        <v>1.334075150516321</v>
       </c>
       <c r="N16">
-        <v>0.996442184539865</v>
+        <v>1.334075150516321</v>
       </c>
       <c r="O16">
-        <v>0.9972891744863676</v>
+        <v>1.107826114108648</v>
       </c>
       <c r="P16">
-        <v>1.000713264080121</v>
+        <v>1.243626416155375</v>
       </c>
       <c r="Q16">
-        <v>1.000713264080121</v>
+        <v>1.243626416155375</v>
       </c>
       <c r="R16">
-        <v>1.002848803850248</v>
+        <v>1.198402048974902</v>
       </c>
       <c r="S16">
-        <v>1.002848803850248</v>
+        <v>1.198402048974902</v>
       </c>
       <c r="T16">
-        <v>0.9980507923143896</v>
+        <v>1.253316694654148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9939436546397206</v>
+        <v>1.216473294000139</v>
       </c>
       <c r="D17">
-        <v>1.013760353741504</v>
+        <v>1.806525115264698</v>
       </c>
       <c r="E17">
-        <v>0.9943624284904864</v>
+        <v>0.7318353041568593</v>
       </c>
       <c r="F17">
-        <v>0.9939436546397206</v>
+        <v>0.9158383392790644</v>
       </c>
       <c r="G17">
-        <v>1.018771227373578</v>
+        <v>1.037105040499214</v>
       </c>
       <c r="H17">
-        <v>1.000386502618325</v>
+        <v>1.32591721571932</v>
       </c>
       <c r="I17">
-        <v>0.9979580673623516</v>
+        <v>1.216473294000139</v>
       </c>
       <c r="J17">
-        <v>1.013760353741504</v>
+        <v>1.32591721571932</v>
       </c>
       <c r="K17">
-        <v>0.9939436546397206</v>
+        <v>1.216473294000139</v>
       </c>
       <c r="L17">
-        <v>0.9943624284904864</v>
+        <v>1.037105040499214</v>
       </c>
       <c r="M17">
-        <v>1.004061391115995</v>
+        <v>1.181511128109267</v>
       </c>
       <c r="N17">
-        <v>1.004061391115995</v>
+        <v>1.181511128109267</v>
       </c>
       <c r="O17">
-        <v>1.002836428283439</v>
+        <v>1.031619186791798</v>
       </c>
       <c r="P17">
-        <v>1.00068881229057</v>
+        <v>1.193165183406224</v>
       </c>
       <c r="Q17">
-        <v>1.00068881229057</v>
+        <v>1.193165183406224</v>
       </c>
       <c r="R17">
-        <v>0.9990025228778578</v>
+        <v>1.198992211054703</v>
       </c>
       <c r="S17">
-        <v>0.9990025228778578</v>
+        <v>1.198992211054703</v>
       </c>
       <c r="T17">
-        <v>1.003197039037661</v>
+        <v>1.172282384819882</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.023821600789101</v>
+        <v>1.513795381184402</v>
       </c>
       <c r="D18">
-        <v>1.00029812976866</v>
+        <v>0.9010365970874347</v>
       </c>
       <c r="E18">
-        <v>1.017632793097454</v>
+        <v>0.8857341767166198</v>
       </c>
       <c r="F18">
-        <v>1.023821600789101</v>
+        <v>1.002124812880872</v>
       </c>
       <c r="G18">
-        <v>0.9908083908859742</v>
+        <v>0.910232477253441</v>
       </c>
       <c r="H18">
-        <v>0.9865605827527559</v>
+        <v>0.8547939811050118</v>
       </c>
       <c r="I18">
-        <v>1.000624904189799</v>
+        <v>1.513795381184402</v>
       </c>
       <c r="J18">
-        <v>1.00029812976866</v>
+        <v>0.8547939811050118</v>
       </c>
       <c r="K18">
-        <v>1.023821600789101</v>
+        <v>1.513795381184402</v>
       </c>
       <c r="L18">
-        <v>1.017632793097454</v>
+        <v>0.910232477253441</v>
       </c>
       <c r="M18">
-        <v>1.008965461433057</v>
+        <v>0.8825132291792264</v>
       </c>
       <c r="N18">
-        <v>1.008965461433057</v>
+        <v>0.8825132291792264</v>
       </c>
       <c r="O18">
-        <v>1.001497168539623</v>
+        <v>0.8835868783583575</v>
       </c>
       <c r="P18">
-        <v>1.013917507885072</v>
+        <v>1.092940613180952</v>
       </c>
       <c r="Q18">
-        <v>1.013917507885072</v>
+        <v>1.092940613180952</v>
       </c>
       <c r="R18">
-        <v>1.016393531111079</v>
+        <v>1.198154305181814</v>
       </c>
       <c r="S18">
-        <v>1.016393531111079</v>
+        <v>1.198154305181814</v>
       </c>
       <c r="T18">
-        <v>1.003291066913957</v>
+        <v>1.01128623770463</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="D19">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="E19">
+        <v>0.8591250695699229</v>
+      </c>
+      <c r="F19">
+        <v>0.9851825452205999</v>
+      </c>
+      <c r="G19">
+        <v>0.8460086031697764</v>
+      </c>
+      <c r="H19">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="I19">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="J19">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="K19">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="L19">
+        <v>0.8460086031697764</v>
+      </c>
+      <c r="M19">
+        <v>0.8626619202915655</v>
+      </c>
+      <c r="N19">
+        <v>0.8626619202915655</v>
+      </c>
+      <c r="O19">
+        <v>0.8614829700510179</v>
+      </c>
+      <c r="P19">
+        <v>1.161752561657627</v>
+      </c>
+      <c r="Q19">
+        <v>1.161752561657627</v>
+      </c>
+      <c r="R19">
+        <v>1.311297882340658</v>
+      </c>
+      <c r="S19">
+        <v>1.311297882340658</v>
+      </c>
+      <c r="T19">
+        <v>1.029513163614374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="D20">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="E20">
+        <v>0.9989831543793731</v>
+      </c>
+      <c r="F20">
+        <v>1.001493994137479</v>
+      </c>
+      <c r="G20">
+        <v>1.002367661560521</v>
+      </c>
+      <c r="H20">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="I20">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="J20">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="K20">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="L20">
+        <v>1.002367661560521</v>
+      </c>
+      <c r="M20">
+        <v>0.9964421845398654</v>
+      </c>
+      <c r="N20">
+        <v>0.9964421845398654</v>
+      </c>
+      <c r="O20">
+        <v>0.997289174486368</v>
+      </c>
+      <c r="P20">
+        <v>1.000713264080121</v>
+      </c>
+      <c r="Q20">
+        <v>1.000713264080122</v>
+      </c>
+      <c r="R20">
+        <v>1.002848803850249</v>
+      </c>
+      <c r="S20">
+        <v>1.002848803850249</v>
+      </c>
+      <c r="T20">
+        <v>0.9980507923143905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="D21">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="E21">
+        <v>1.000386502618325</v>
+      </c>
+      <c r="F21">
+        <v>0.9979580673623522</v>
+      </c>
+      <c r="G21">
+        <v>0.9943624284904866</v>
+      </c>
+      <c r="H21">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="I21">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="J21">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="K21">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="L21">
+        <v>0.9943624284904866</v>
+      </c>
+      <c r="M21">
+        <v>1.004061391115996</v>
+      </c>
+      <c r="N21">
+        <v>1.004061391115996</v>
+      </c>
+      <c r="O21">
+        <v>1.002836428283439</v>
+      </c>
+      <c r="P21">
+        <v>1.000688812290571</v>
+      </c>
+      <c r="Q21">
+        <v>1.000688812290571</v>
+      </c>
+      <c r="R21">
+        <v>0.9990025228778583</v>
+      </c>
+      <c r="S21">
+        <v>0.9990025228778583</v>
+      </c>
+      <c r="T21">
+        <v>1.003197039037661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="D22">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="E22">
+        <v>0.9865605827527556</v>
+      </c>
+      <c r="F22">
+        <v>1.000624904189798</v>
+      </c>
+      <c r="G22">
+        <v>1.017632793097454</v>
+      </c>
+      <c r="H22">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="I22">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="J22">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="K22">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="L22">
+        <v>1.017632793097454</v>
+      </c>
+      <c r="M22">
+        <v>1.008965461433057</v>
+      </c>
+      <c r="N22">
+        <v>1.008965461433057</v>
+      </c>
+      <c r="O22">
+        <v>1.001497168539623</v>
+      </c>
+      <c r="P22">
+        <v>1.013917507885072</v>
+      </c>
+      <c r="Q22">
+        <v>1.013917507885072</v>
+      </c>
+      <c r="R22">
+        <v>1.016393531111079</v>
+      </c>
+      <c r="S22">
+        <v>1.016393531111079</v>
+      </c>
+      <c r="T22">
+        <v>1.003291066913958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.061957687523567</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.901708431581948</v>
+      </c>
+      <c r="E23">
+        <v>0.9767356723904453</v>
+      </c>
+      <c r="F23">
+        <v>1.006987106208106</v>
+      </c>
+      <c r="G23">
+        <v>1.05412377517706</v>
+      </c>
+      <c r="H23">
         <v>0.9189962377490069</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.061957687523567</v>
+      </c>
+      <c r="J23">
+        <v>0.9189962377490069</v>
+      </c>
+      <c r="K23">
+        <v>1.061957687523567</v>
+      </c>
+      <c r="L23">
         <v>1.05412377517706</v>
       </c>
-      <c r="F19">
-        <v>1.061957687523567</v>
-      </c>
-      <c r="G19">
-        <v>0.901708431581948</v>
-      </c>
-      <c r="H19">
-        <v>0.9767356723904453</v>
-      </c>
-      <c r="I19">
-        <v>1.006987106208106</v>
-      </c>
-      <c r="J19">
-        <v>0.9189962377490069</v>
-      </c>
-      <c r="K19">
-        <v>1.061957687523567</v>
-      </c>
-      <c r="L19">
-        <v>1.05412377517706</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9865600064630333</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9865600064630333</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9832852284388373</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.011692566816544</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.011692566816544</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.0242588469933</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.0242588469933</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9867514851050222</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005276975179548</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="D3">
-        <v>1.07464665953904</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="E3">
-        <v>0.9806354027008221</v>
+        <v>0.8535656351248198</v>
       </c>
       <c r="F3">
-        <v>0.9911759234303122</v>
+        <v>0.9871160619869618</v>
       </c>
       <c r="G3">
-        <v>1.004971985811638</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="H3">
-        <v>1.03600041320105</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="I3">
-        <v>1.005276975179548</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="J3">
-        <v>1.03600041320105</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="K3">
-        <v>1.005276975179548</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="L3">
-        <v>1.004971985811638</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="M3">
-        <v>1.020486199506344</v>
+        <v>0.8735442538444655</v>
       </c>
       <c r="N3">
-        <v>1.020486199506344</v>
+        <v>0.8735442538444655</v>
       </c>
       <c r="O3">
-        <v>1.00720260057117</v>
+        <v>0.8668847142712502</v>
       </c>
       <c r="P3">
-        <v>1.015416458064079</v>
+        <v>1.133026452366847</v>
       </c>
       <c r="Q3">
-        <v>1.015416458064079</v>
+        <v>1.133026452366847</v>
       </c>
       <c r="R3">
-        <v>1.012881587342946</v>
+        <v>1.262767551628038</v>
       </c>
       <c r="S3">
-        <v>1.012881587342946</v>
+        <v>1.262767551628038</v>
       </c>
       <c r="T3">
-        <v>1.015451226643735</v>
+        <v>1.030073224261543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005414003669555</v>
+        <v>1.58176301977705</v>
       </c>
       <c r="D4">
-        <v>1.141933910465841</v>
+        <v>0.9185397939209535</v>
       </c>
       <c r="E4">
-        <v>0.9620644023438698</v>
+        <v>0.8702909088353629</v>
       </c>
       <c r="F4">
-        <v>0.9845458942831455</v>
+        <v>0.9960421379914629</v>
       </c>
       <c r="G4">
-        <v>1.012508622009755</v>
+        <v>0.9044987098056145</v>
       </c>
       <c r="H4">
-        <v>1.067304768508322</v>
+        <v>0.8386058968193733</v>
       </c>
       <c r="I4">
-        <v>1.005414003669555</v>
+        <v>1.58176301977705</v>
       </c>
       <c r="J4">
-        <v>1.067304768508322</v>
+        <v>0.8386058968193733</v>
       </c>
       <c r="K4">
-        <v>1.005414003669555</v>
+        <v>1.58176301977705</v>
       </c>
       <c r="L4">
-        <v>1.012508622009755</v>
+        <v>0.9044987098056145</v>
       </c>
       <c r="M4">
-        <v>1.039906695259039</v>
+        <v>0.8715523033124939</v>
       </c>
       <c r="N4">
-        <v>1.039906695259039</v>
+        <v>0.8715523033124939</v>
       </c>
       <c r="O4">
-        <v>1.013959264287316</v>
+        <v>0.8711318384867835</v>
       </c>
       <c r="P4">
-        <v>1.028409131395877</v>
+        <v>1.108289208800679</v>
       </c>
       <c r="Q4">
-        <v>1.028409131395877</v>
+        <v>1.108289208800679</v>
       </c>
       <c r="R4">
-        <v>1.022660349464297</v>
+        <v>1.226657661544772</v>
       </c>
       <c r="S4">
-        <v>1.022660349464297</v>
+        <v>1.226657661544772</v>
       </c>
       <c r="T4">
-        <v>1.028961933546748</v>
+        <v>1.018290077858303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024006648125157</v>
+        <v>1.787225779812968</v>
       </c>
       <c r="D5">
-        <v>1.280146591999447</v>
+        <v>0.9788116811168187</v>
       </c>
       <c r="E5">
-        <v>0.9192181716550686</v>
+        <v>0.8224174342375346</v>
       </c>
       <c r="F5">
-        <v>0.9629130905176178</v>
+        <v>0.9698992707164412</v>
       </c>
       <c r="G5">
-        <v>1.025447724311187</v>
+        <v>0.8822825874099735</v>
       </c>
       <c r="H5">
-        <v>1.136261537240609</v>
+        <v>0.876257064764419</v>
       </c>
       <c r="I5">
-        <v>1.024006648125157</v>
+        <v>1.787225779812968</v>
       </c>
       <c r="J5">
-        <v>1.136261537240609</v>
+        <v>0.876257064764419</v>
       </c>
       <c r="K5">
-        <v>1.024006648125157</v>
+        <v>1.787225779812968</v>
       </c>
       <c r="L5">
-        <v>1.025447724311187</v>
+        <v>0.8822825874099735</v>
       </c>
       <c r="M5">
-        <v>1.080854630775898</v>
+        <v>0.8792698260871963</v>
       </c>
       <c r="N5">
-        <v>1.080854630775898</v>
+        <v>0.8792698260871963</v>
       </c>
       <c r="O5">
-        <v>1.026975811068955</v>
+        <v>0.8603190288039757</v>
       </c>
       <c r="P5">
-        <v>1.061905303225651</v>
+        <v>1.181921810662454</v>
       </c>
       <c r="Q5">
-        <v>1.061905303225651</v>
+        <v>1.181921810662453</v>
       </c>
       <c r="R5">
-        <v>1.052430639450528</v>
+        <v>1.333247802950082</v>
       </c>
       <c r="S5">
-        <v>1.052430639450528</v>
+        <v>1.333247802950082</v>
       </c>
       <c r="T5">
-        <v>1.057998960641515</v>
+        <v>1.052815636343026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.111510178399358</v>
+        <v>1.920038412796875</v>
       </c>
       <c r="D6">
-        <v>1.503450978919303</v>
+        <v>1.009518951425455</v>
       </c>
       <c r="E6">
-        <v>0.8298265858005867</v>
+        <v>0.7955131534182669</v>
       </c>
       <c r="F6">
-        <v>0.9246304468032863</v>
+        <v>0.9530377461590909</v>
       </c>
       <c r="G6">
-        <v>0.9752732093789623</v>
+        <v>0.8677763510414765</v>
       </c>
       <c r="H6">
-        <v>1.276797081617945</v>
+        <v>0.9101397669486924</v>
       </c>
       <c r="I6">
-        <v>1.111510178399358</v>
+        <v>1.920038412796875</v>
       </c>
       <c r="J6">
-        <v>1.276797081617945</v>
+        <v>0.9101397669486924</v>
       </c>
       <c r="K6">
-        <v>1.111510178399358</v>
+        <v>1.920038412796875</v>
       </c>
       <c r="L6">
-        <v>0.9752732093789623</v>
+        <v>0.8677763510414765</v>
       </c>
       <c r="M6">
-        <v>1.126035145498454</v>
+        <v>0.8889580589950845</v>
       </c>
       <c r="N6">
-        <v>1.126035145498454</v>
+        <v>0.8889580589950845</v>
       </c>
       <c r="O6">
-        <v>1.027298958932498</v>
+        <v>0.8578097571361454</v>
       </c>
       <c r="P6">
-        <v>1.121193489798755</v>
+        <v>1.232651510262348</v>
       </c>
       <c r="Q6">
-        <v>1.121193489798755</v>
+        <v>1.232651510262348</v>
       </c>
       <c r="R6">
-        <v>1.118772661948906</v>
+        <v>1.404498235895979</v>
       </c>
       <c r="S6">
-        <v>1.118772661948906</v>
+        <v>1.404498235895979</v>
       </c>
       <c r="T6">
-        <v>1.103581413486574</v>
+        <v>1.076004063631643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.006521569453629</v>
+        <v>0.5715004399139312</v>
       </c>
       <c r="D7">
-        <v>0.9985761432212134</v>
+        <v>2.856492904444475</v>
       </c>
       <c r="E7">
-        <v>0.999068316633014</v>
+        <v>0.6103551516439809</v>
       </c>
       <c r="F7">
-        <v>0.9995430243973151</v>
+        <v>0.832076196192733</v>
       </c>
       <c r="G7">
-        <v>0.998886913608574</v>
+        <v>1.22340038763224</v>
       </c>
       <c r="H7">
-        <v>1.001048952954709</v>
+        <v>1.945612183754858</v>
       </c>
       <c r="I7">
-        <v>1.006521569453629</v>
+        <v>0.5715004399139312</v>
       </c>
       <c r="J7">
-        <v>1.001048952954709</v>
+        <v>1.945612183754858</v>
       </c>
       <c r="K7">
-        <v>1.006521569453629</v>
+        <v>0.5715004399139312</v>
       </c>
       <c r="L7">
-        <v>0.998886913608574</v>
+        <v>1.22340038763224</v>
       </c>
       <c r="M7">
-        <v>0.9999679332816416</v>
+        <v>1.584506285693549</v>
       </c>
       <c r="N7">
-        <v>0.9999679332816416</v>
+        <v>1.584506285693549</v>
       </c>
       <c r="O7">
-        <v>0.9996680610654324</v>
+        <v>1.25978924101036</v>
       </c>
       <c r="P7">
-        <v>1.002152478672304</v>
+        <v>1.246837670433677</v>
       </c>
       <c r="Q7">
-        <v>1.002152478672304</v>
+        <v>1.246837670433677</v>
       </c>
       <c r="R7">
-        <v>1.003244751367635</v>
+        <v>1.07800336280374</v>
       </c>
       <c r="S7">
-        <v>1.003244751367635</v>
+        <v>1.07800336280374</v>
       </c>
       <c r="T7">
-        <v>1.000607486711409</v>
+        <v>1.339906210597037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.013853706632245</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="D8">
-        <v>0.9964548033553053</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="E8">
-        <v>0.998339724328008</v>
+        <v>0.6103179468612348</v>
       </c>
       <c r="F8">
-        <v>0.9990729132372146</v>
+        <v>0.8296006807712534</v>
       </c>
       <c r="G8">
-        <v>0.9964841532641266</v>
+        <v>1.216814230196834</v>
       </c>
       <c r="H8">
-        <v>1.005798931538653</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="I8">
-        <v>1.013853706632245</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="J8">
-        <v>1.005798931538653</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="K8">
-        <v>1.013853706632245</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="L8">
-        <v>0.9964841532641266</v>
+        <v>1.216814230196834</v>
       </c>
       <c r="M8">
-        <v>1.00114154240139</v>
+        <v>1.590670688692333</v>
       </c>
       <c r="N8">
-        <v>1.00114154240139</v>
+        <v>1.590670688692333</v>
       </c>
       <c r="O8">
-        <v>1.000207603043596</v>
+        <v>1.2638864414153</v>
       </c>
       <c r="P8">
-        <v>1.005378930478342</v>
+        <v>1.25903502051963</v>
       </c>
       <c r="Q8">
-        <v>1.005378930478342</v>
+        <v>1.25903502051963</v>
       </c>
       <c r="R8">
-        <v>1.007497624516817</v>
+        <v>1.093217186433278</v>
       </c>
       <c r="S8">
-        <v>1.007497624516817</v>
+        <v>1.093217186433278</v>
       </c>
       <c r="T8">
-        <v>1.001667372059259</v>
+        <v>1.342722252251943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.017333196793282</v>
+        <v>0.6236213856391167</v>
       </c>
       <c r="D9">
-        <v>0.9953877755528782</v>
+        <v>2.825356282781992</v>
       </c>
       <c r="E9">
-        <v>0.9979134023610984</v>
+        <v>0.6096114843894457</v>
       </c>
       <c r="F9">
-        <v>0.9979261814041912</v>
+        <v>0.8274912927497319</v>
       </c>
       <c r="G9">
-        <v>0.9954910294956575</v>
+        <v>1.212238213484283</v>
       </c>
       <c r="H9">
-        <v>1.014034029728343</v>
+        <v>1.96395190199892</v>
       </c>
       <c r="I9">
-        <v>1.017333196793282</v>
+        <v>0.6236213856391167</v>
       </c>
       <c r="J9">
-        <v>1.014034029728343</v>
+        <v>1.96395190199892</v>
       </c>
       <c r="K9">
-        <v>1.017333196793282</v>
+        <v>0.6236213856391167</v>
       </c>
       <c r="L9">
-        <v>0.9954910294956575</v>
+        <v>1.212238213484283</v>
       </c>
       <c r="M9">
-        <v>1.004762529612</v>
+        <v>1.588095057741601</v>
       </c>
       <c r="N9">
-        <v>1.004762529612</v>
+        <v>1.588095057741601</v>
       </c>
       <c r="O9">
-        <v>1.002479487195033</v>
+        <v>1.261933866624216</v>
       </c>
       <c r="P9">
-        <v>1.008952752005761</v>
+        <v>1.26660383370744</v>
       </c>
       <c r="Q9">
-        <v>1.008952752005761</v>
+        <v>1.26660383370744</v>
       </c>
       <c r="R9">
-        <v>1.011047863202641</v>
+        <v>1.105858221690359</v>
       </c>
       <c r="S9">
-        <v>1.011047863202641</v>
+        <v>1.105858221690359</v>
       </c>
       <c r="T9">
-        <v>1.003014269222575</v>
+        <v>1.343711760173915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.041339981610421</v>
+        <v>0.6678448007231662</v>
       </c>
       <c r="D10">
-        <v>0.9902930159431937</v>
+        <v>2.779254198101207</v>
       </c>
       <c r="E10">
-        <v>0.9946605381501319</v>
+        <v>0.6158785572760576</v>
       </c>
       <c r="F10">
-        <v>0.9956407471254869</v>
+        <v>0.8157095241346654</v>
       </c>
       <c r="G10">
-        <v>0.9901345802959458</v>
+        <v>1.194149864871326</v>
       </c>
       <c r="H10">
-        <v>1.024586214661496</v>
+        <v>2.079469756014723</v>
       </c>
       <c r="I10">
-        <v>1.041339981610421</v>
+        <v>0.6678448007231662</v>
       </c>
       <c r="J10">
-        <v>1.024586214661496</v>
+        <v>2.079469756014723</v>
       </c>
       <c r="K10">
-        <v>1.041339981610421</v>
+        <v>0.6678448007231662</v>
       </c>
       <c r="L10">
-        <v>0.9901345802959458</v>
+        <v>1.194149864871326</v>
       </c>
       <c r="M10">
-        <v>1.007360397478721</v>
+        <v>1.636809810443025</v>
       </c>
       <c r="N10">
-        <v>1.007360397478721</v>
+        <v>1.636809810443025</v>
       </c>
       <c r="O10">
-        <v>1.003127111035858</v>
+        <v>1.296499392720702</v>
       </c>
       <c r="P10">
-        <v>1.018686925522621</v>
+        <v>1.313821473869738</v>
       </c>
       <c r="Q10">
-        <v>1.018686925522621</v>
+        <v>1.313821473869738</v>
       </c>
       <c r="R10">
-        <v>1.024350189544571</v>
+        <v>1.152327305583095</v>
       </c>
       <c r="S10">
-        <v>1.024350189544571</v>
+        <v>1.152327305583095</v>
       </c>
       <c r="T10">
-        <v>1.006109179631113</v>
+        <v>1.358717783520191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.059869219165151</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="D11">
-        <v>0.9841786959919395</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="E11">
-        <v>0.9907554162013842</v>
+        <v>0.9803386958162303</v>
       </c>
       <c r="F11">
-        <v>0.9931841348951113</v>
+        <v>0.992039906837999</v>
       </c>
       <c r="G11">
-        <v>0.9834437710370558</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="H11">
-        <v>1.059735053009184</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="I11">
-        <v>1.059869219165151</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="J11">
-        <v>1.059735053009184</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="K11">
-        <v>1.059869219165151</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="L11">
-        <v>0.9834437710370558</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="M11">
-        <v>1.02158941202312</v>
+        <v>1.021066671039856</v>
       </c>
       <c r="N11">
-        <v>1.02158941202312</v>
+        <v>1.021066671039856</v>
       </c>
       <c r="O11">
-        <v>1.011311413415875</v>
+        <v>1.007490679298647</v>
       </c>
       <c r="P11">
-        <v>1.03434934773713</v>
+        <v>1.012599050675465</v>
       </c>
       <c r="Q11">
-        <v>1.03434934773713</v>
+        <v>1.012599050675465</v>
       </c>
       <c r="R11">
-        <v>1.040729315594136</v>
+        <v>1.008365240493269</v>
       </c>
       <c r="S11">
-        <v>1.040729315594136</v>
+        <v>1.008365240493269</v>
       </c>
       <c r="T11">
-        <v>1.011861048383304</v>
+        <v>1.015574246438401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4737304055118667</v>
+        <v>0.9988444653539049</v>
       </c>
       <c r="D12">
-        <v>0.6839215333004276</v>
+        <v>1.04235694343816</v>
       </c>
       <c r="E12">
-        <v>1.02046059657031</v>
+        <v>0.9894982855387572</v>
       </c>
       <c r="F12">
-        <v>1.147339775608283</v>
+        <v>0.9950714857491635</v>
       </c>
       <c r="G12">
-        <v>1.351068282767972</v>
+        <v>1.004684897893218</v>
       </c>
       <c r="H12">
-        <v>0.3218313991703864</v>
+        <v>1.023338510725692</v>
       </c>
       <c r="I12">
-        <v>0.4737304055118667</v>
+        <v>0.9988444653539049</v>
       </c>
       <c r="J12">
-        <v>0.3218313991703864</v>
+        <v>1.023338510725692</v>
       </c>
       <c r="K12">
-        <v>0.4737304055118667</v>
+        <v>0.9988444653539049</v>
       </c>
       <c r="L12">
-        <v>1.351068282767972</v>
+        <v>1.004684897893218</v>
       </c>
       <c r="M12">
-        <v>0.836449840969179</v>
+        <v>1.014011704309455</v>
       </c>
       <c r="N12">
-        <v>0.836449840969179</v>
+        <v>1.014011704309455</v>
       </c>
       <c r="O12">
-        <v>0.8977867595028893</v>
+        <v>1.005840564719223</v>
       </c>
       <c r="P12">
-        <v>0.7155433624834081</v>
+        <v>1.008955957990938</v>
       </c>
       <c r="Q12">
-        <v>0.7155433624834083</v>
+        <v>1.008955957990939</v>
       </c>
       <c r="R12">
-        <v>0.6550901232405228</v>
+        <v>1.00642808483168</v>
       </c>
       <c r="S12">
-        <v>0.6550901232405228</v>
+        <v>1.00642808483168</v>
       </c>
       <c r="T12">
-        <v>0.8330586654882076</v>
+        <v>1.008965764783149</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.552298692499595</v>
+        <v>0.9933795181214996</v>
       </c>
       <c r="D13">
-        <v>1.5747027242848</v>
+        <v>1.131685474890926</v>
       </c>
       <c r="E13">
-        <v>1.034762081401286</v>
+        <v>0.9711806842152539</v>
       </c>
       <c r="F13">
-        <v>0.792883474536294</v>
+        <v>0.9778391732098177</v>
       </c>
       <c r="G13">
-        <v>0.4915436637177757</v>
+        <v>1.016610632728755</v>
       </c>
       <c r="H13">
-        <v>1.713282696435615</v>
+        <v>1.092241199351487</v>
       </c>
       <c r="I13">
-        <v>1.552298692499595</v>
+        <v>0.9933795181214996</v>
       </c>
       <c r="J13">
-        <v>1.713282696435615</v>
+        <v>1.092241199351487</v>
       </c>
       <c r="K13">
-        <v>1.552298692499595</v>
+        <v>0.9933795181214996</v>
       </c>
       <c r="L13">
-        <v>0.4915436637177757</v>
+        <v>1.016610632728755</v>
       </c>
       <c r="M13">
-        <v>1.102413180076695</v>
+        <v>1.054425916040121</v>
       </c>
       <c r="N13">
-        <v>1.102413180076695</v>
+        <v>1.054425916040121</v>
       </c>
       <c r="O13">
-        <v>1.079862813851559</v>
+        <v>1.026677505431832</v>
       </c>
       <c r="P13">
-        <v>1.252375017550995</v>
+        <v>1.034077116733914</v>
       </c>
       <c r="Q13">
-        <v>1.252375017550995</v>
+        <v>1.034077116733914</v>
       </c>
       <c r="R13">
-        <v>1.327355936288145</v>
+        <v>1.02390271708081</v>
       </c>
       <c r="S13">
-        <v>1.327355936288145</v>
+        <v>1.02390271708081</v>
       </c>
       <c r="T13">
-        <v>1.193245555479227</v>
+        <v>1.03048944708629</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.04487560622477388</v>
+        <v>1.014512702638022</v>
       </c>
       <c r="D14">
-        <v>0.000597170477148993</v>
+        <v>1.198290720543409</v>
       </c>
       <c r="E14">
-        <v>2.452011665041457</v>
+        <v>0.947697571080502</v>
       </c>
       <c r="F14">
-        <v>0.1665402680163802</v>
+        <v>0.9749199722408348</v>
       </c>
       <c r="G14">
-        <v>0.209749771944535</v>
+        <v>1.015665864238724</v>
       </c>
       <c r="H14">
-        <v>4.958971238726512</v>
+        <v>1.101175100687859</v>
       </c>
       <c r="I14">
-        <v>0.04487560622477388</v>
+        <v>1.014512702638022</v>
       </c>
       <c r="J14">
-        <v>4.958971238726512</v>
+        <v>1.101175100687859</v>
       </c>
       <c r="K14">
-        <v>0.04487560622477388</v>
+        <v>1.014512702638022</v>
       </c>
       <c r="L14">
-        <v>0.209749771944535</v>
+        <v>1.015665864238724</v>
       </c>
       <c r="M14">
-        <v>2.584360505335524</v>
+        <v>1.058420482463291</v>
       </c>
       <c r="N14">
-        <v>2.584360505335524</v>
+        <v>1.058420482463291</v>
       </c>
       <c r="O14">
-        <v>2.540244225237501</v>
+        <v>1.021512845335695</v>
       </c>
       <c r="P14">
-        <v>1.737865538965274</v>
+        <v>1.043784555854868</v>
       </c>
       <c r="Q14">
-        <v>1.737865538965274</v>
+        <v>1.043784555854868</v>
       </c>
       <c r="R14">
-        <v>1.314618055780149</v>
+        <v>1.036466592550657</v>
       </c>
       <c r="S14">
-        <v>1.314618055780149</v>
+        <v>1.036466592550657</v>
       </c>
       <c r="T14">
-        <v>1.305457620071801</v>
+        <v>1.042043655238225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6324805986825459</v>
+        <v>1.005276975179548</v>
       </c>
       <c r="D15">
-        <v>0.07790154559647507</v>
+        <v>1.07464665953904</v>
       </c>
       <c r="E15">
-        <v>1.558998625137756</v>
+        <v>0.9806354027008221</v>
       </c>
       <c r="F15">
-        <v>0.9108226420960556</v>
+        <v>0.9911759234303122</v>
       </c>
       <c r="G15">
-        <v>1.040952454476435</v>
+        <v>1.004971985811638</v>
       </c>
       <c r="H15">
-        <v>0.6311671708583744</v>
+        <v>1.03600041320105</v>
       </c>
       <c r="I15">
-        <v>0.6324805986825459</v>
+        <v>1.005276975179548</v>
       </c>
       <c r="J15">
-        <v>0.6311671708583744</v>
+        <v>1.03600041320105</v>
       </c>
       <c r="K15">
-        <v>0.6324805986825459</v>
+        <v>1.005276975179548</v>
       </c>
       <c r="L15">
-        <v>1.040952454476435</v>
+        <v>1.004971985811638</v>
       </c>
       <c r="M15">
-        <v>0.8360598126674048</v>
+        <v>1.020486199506344</v>
       </c>
       <c r="N15">
-        <v>0.8360598126674048</v>
+        <v>1.020486199506344</v>
       </c>
       <c r="O15">
-        <v>1.077039416824189</v>
+        <v>1.00720260057117</v>
       </c>
       <c r="P15">
-        <v>0.7682000746724519</v>
+        <v>1.015416458064079</v>
       </c>
       <c r="Q15">
-        <v>0.7682000746724519</v>
+        <v>1.015416458064079</v>
       </c>
       <c r="R15">
-        <v>0.7342702056749754</v>
+        <v>1.012881587342946</v>
       </c>
       <c r="S15">
-        <v>0.7342702056749754</v>
+        <v>1.012881587342946</v>
       </c>
       <c r="T15">
-        <v>0.8087205061412738</v>
+        <v>1.015451226643735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.062728947433483</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="D16">
-        <v>2.26116311508523</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="E16">
-        <v>0.6553280412933028</v>
+        <v>0.9620644023438698</v>
       </c>
       <c r="F16">
-        <v>0.8725297630802281</v>
+        <v>0.9845458942831455</v>
       </c>
       <c r="G16">
-        <v>1.101099253437838</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="H16">
-        <v>1.567051047594804</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="I16">
-        <v>1.062728947433483</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="J16">
-        <v>1.567051047594804</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="K16">
-        <v>1.062728947433483</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="L16">
-        <v>1.101099253437838</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="M16">
-        <v>1.334075150516321</v>
+        <v>1.039906695259039</v>
       </c>
       <c r="N16">
-        <v>1.334075150516321</v>
+        <v>1.039906695259039</v>
       </c>
       <c r="O16">
-        <v>1.107826114108648</v>
+        <v>1.013959264287316</v>
       </c>
       <c r="P16">
-        <v>1.243626416155375</v>
+        <v>1.028409131395877</v>
       </c>
       <c r="Q16">
-        <v>1.243626416155375</v>
+        <v>1.028409131395877</v>
       </c>
       <c r="R16">
-        <v>1.198402048974902</v>
+        <v>1.022660349464297</v>
       </c>
       <c r="S16">
-        <v>1.198402048974902</v>
+        <v>1.022660349464297</v>
       </c>
       <c r="T16">
-        <v>1.253316694654148</v>
+        <v>1.028961933546748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.216473294000139</v>
+        <v>1.024006648125157</v>
       </c>
       <c r="D17">
-        <v>1.806525115264698</v>
+        <v>1.280146591999447</v>
       </c>
       <c r="E17">
-        <v>0.7318353041568593</v>
+        <v>0.9192181716550686</v>
       </c>
       <c r="F17">
-        <v>0.9158383392790644</v>
+        <v>0.9629130905176178</v>
       </c>
       <c r="G17">
-        <v>1.037105040499214</v>
+        <v>1.025447724311187</v>
       </c>
       <c r="H17">
-        <v>1.32591721571932</v>
+        <v>1.136261537240609</v>
       </c>
       <c r="I17">
-        <v>1.216473294000139</v>
+        <v>1.024006648125157</v>
       </c>
       <c r="J17">
-        <v>1.32591721571932</v>
+        <v>1.136261537240609</v>
       </c>
       <c r="K17">
-        <v>1.216473294000139</v>
+        <v>1.024006648125157</v>
       </c>
       <c r="L17">
-        <v>1.037105040499214</v>
+        <v>1.025447724311187</v>
       </c>
       <c r="M17">
-        <v>1.181511128109267</v>
+        <v>1.080854630775898</v>
       </c>
       <c r="N17">
-        <v>1.181511128109267</v>
+        <v>1.080854630775898</v>
       </c>
       <c r="O17">
-        <v>1.031619186791798</v>
+        <v>1.026975811068955</v>
       </c>
       <c r="P17">
-        <v>1.193165183406224</v>
+        <v>1.061905303225651</v>
       </c>
       <c r="Q17">
-        <v>1.193165183406224</v>
+        <v>1.061905303225651</v>
       </c>
       <c r="R17">
-        <v>1.198992211054703</v>
+        <v>1.052430639450528</v>
       </c>
       <c r="S17">
-        <v>1.198992211054703</v>
+        <v>1.052430639450528</v>
       </c>
       <c r="T17">
-        <v>1.172282384819882</v>
+        <v>1.057998960641515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.513795381184402</v>
+        <v>1.111510178399358</v>
       </c>
       <c r="D18">
-        <v>0.9010365970874347</v>
+        <v>1.503450978919303</v>
       </c>
       <c r="E18">
-        <v>0.8857341767166198</v>
+        <v>0.8298265858005867</v>
       </c>
       <c r="F18">
-        <v>1.002124812880872</v>
+        <v>0.9246304468032863</v>
       </c>
       <c r="G18">
-        <v>0.910232477253441</v>
+        <v>0.9752732093789623</v>
       </c>
       <c r="H18">
-        <v>0.8547939811050118</v>
+        <v>1.276797081617945</v>
       </c>
       <c r="I18">
-        <v>1.513795381184402</v>
+        <v>1.111510178399358</v>
       </c>
       <c r="J18">
-        <v>0.8547939811050118</v>
+        <v>1.276797081617945</v>
       </c>
       <c r="K18">
-        <v>1.513795381184402</v>
+        <v>1.111510178399358</v>
       </c>
       <c r="L18">
-        <v>0.910232477253441</v>
+        <v>0.9752732093789623</v>
       </c>
       <c r="M18">
-        <v>0.8825132291792264</v>
+        <v>1.126035145498454</v>
       </c>
       <c r="N18">
-        <v>0.8825132291792264</v>
+        <v>1.126035145498454</v>
       </c>
       <c r="O18">
-        <v>0.8835868783583575</v>
+        <v>1.027298958932498</v>
       </c>
       <c r="P18">
-        <v>1.092940613180952</v>
+        <v>1.121193489798755</v>
       </c>
       <c r="Q18">
-        <v>1.092940613180952</v>
+        <v>1.121193489798755</v>
       </c>
       <c r="R18">
-        <v>1.198154305181814</v>
+        <v>1.118772661948906</v>
       </c>
       <c r="S18">
-        <v>1.198154305181814</v>
+        <v>1.118772661948906</v>
       </c>
       <c r="T18">
-        <v>1.01128623770463</v>
+        <v>1.103581413486574</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.759933844389751</v>
+        <v>1.006521569453629</v>
       </c>
       <c r="D19">
-        <v>0.8475136819228377</v>
+        <v>0.9985761432212134</v>
       </c>
       <c r="E19">
-        <v>0.8591250695699229</v>
+        <v>0.999068316633014</v>
       </c>
       <c r="F19">
-        <v>0.9851825452205999</v>
+        <v>0.9995430243973151</v>
       </c>
       <c r="G19">
-        <v>0.8460086031697764</v>
+        <v>0.998886913608574</v>
       </c>
       <c r="H19">
-        <v>0.8793152374133547</v>
+        <v>1.001048952954709</v>
       </c>
       <c r="I19">
-        <v>1.759933844389751</v>
+        <v>1.006521569453629</v>
       </c>
       <c r="J19">
-        <v>0.8793152374133547</v>
+        <v>1.001048952954709</v>
       </c>
       <c r="K19">
-        <v>1.759933844389751</v>
+        <v>1.006521569453629</v>
       </c>
       <c r="L19">
-        <v>0.8460086031697764</v>
+        <v>0.998886913608574</v>
       </c>
       <c r="M19">
-        <v>0.8626619202915655</v>
+        <v>0.9999679332816416</v>
       </c>
       <c r="N19">
-        <v>0.8626619202915655</v>
+        <v>0.9999679332816416</v>
       </c>
       <c r="O19">
-        <v>0.8614829700510179</v>
+        <v>0.9996680610654324</v>
       </c>
       <c r="P19">
-        <v>1.161752561657627</v>
+        <v>1.002152478672304</v>
       </c>
       <c r="Q19">
-        <v>1.161752561657627</v>
+        <v>1.002152478672304</v>
       </c>
       <c r="R19">
-        <v>1.311297882340658</v>
+        <v>1.003244751367635</v>
       </c>
       <c r="S19">
-        <v>1.311297882340658</v>
+        <v>1.003244751367635</v>
       </c>
       <c r="T19">
-        <v>1.029513163614374</v>
+        <v>1.000607486711409</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.009255423160633</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="D20">
-        <v>0.985687813129126</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="E20">
-        <v>0.9989831543793731</v>
+        <v>0.998339724328008</v>
       </c>
       <c r="F20">
-        <v>1.001493994137479</v>
+        <v>0.9990729132372146</v>
       </c>
       <c r="G20">
-        <v>1.002367661560521</v>
+        <v>0.9964841532641266</v>
       </c>
       <c r="H20">
-        <v>0.9905167075192097</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="I20">
-        <v>1.009255423160633</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="J20">
-        <v>0.9905167075192097</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="K20">
-        <v>1.009255423160633</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="L20">
-        <v>1.002367661560521</v>
+        <v>0.9964841532641266</v>
       </c>
       <c r="M20">
-        <v>0.9964421845398654</v>
+        <v>1.00114154240139</v>
       </c>
       <c r="N20">
-        <v>0.9964421845398654</v>
+        <v>1.00114154240139</v>
       </c>
       <c r="O20">
-        <v>0.997289174486368</v>
+        <v>1.000207603043596</v>
       </c>
       <c r="P20">
-        <v>1.000713264080121</v>
+        <v>1.005378930478342</v>
       </c>
       <c r="Q20">
-        <v>1.000713264080122</v>
+        <v>1.005378930478342</v>
       </c>
       <c r="R20">
-        <v>1.002848803850249</v>
+        <v>1.007497624516817</v>
       </c>
       <c r="S20">
-        <v>1.002848803850249</v>
+        <v>1.007497624516817</v>
       </c>
       <c r="T20">
-        <v>0.9980507923143905</v>
+        <v>1.001667372059259</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9939436546397209</v>
+        <v>1.017333196793282</v>
       </c>
       <c r="D21">
-        <v>1.018771227373578</v>
+        <v>0.9953877755528782</v>
       </c>
       <c r="E21">
-        <v>1.000386502618325</v>
+        <v>0.9979134023610984</v>
       </c>
       <c r="F21">
-        <v>0.9979580673623522</v>
+        <v>0.9979261814041912</v>
       </c>
       <c r="G21">
-        <v>0.9943624284904866</v>
+        <v>0.9954910294956575</v>
       </c>
       <c r="H21">
-        <v>1.013760353741505</v>
+        <v>1.014034029728343</v>
       </c>
       <c r="I21">
-        <v>0.9939436546397209</v>
+        <v>1.017333196793282</v>
       </c>
       <c r="J21">
-        <v>1.013760353741505</v>
+        <v>1.014034029728343</v>
       </c>
       <c r="K21">
-        <v>0.9939436546397209</v>
+        <v>1.017333196793282</v>
       </c>
       <c r="L21">
-        <v>0.9943624284904866</v>
+        <v>0.9954910294956575</v>
       </c>
       <c r="M21">
-        <v>1.004061391115996</v>
+        <v>1.004762529612</v>
       </c>
       <c r="N21">
-        <v>1.004061391115996</v>
+        <v>1.004762529612</v>
       </c>
       <c r="O21">
-        <v>1.002836428283439</v>
+        <v>1.002479487195033</v>
       </c>
       <c r="P21">
-        <v>1.000688812290571</v>
+        <v>1.008952752005761</v>
       </c>
       <c r="Q21">
-        <v>1.000688812290571</v>
+        <v>1.008952752005761</v>
       </c>
       <c r="R21">
-        <v>0.9990025228778583</v>
+        <v>1.011047863202641</v>
       </c>
       <c r="S21">
-        <v>0.9990025228778583</v>
+        <v>1.011047863202641</v>
       </c>
       <c r="T21">
-        <v>1.003197039037661</v>
+        <v>1.003014269222575</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.023821600789102</v>
+        <v>1.041339981610421</v>
       </c>
       <c r="D22">
-        <v>0.9908083908859752</v>
+        <v>0.9902930159431937</v>
       </c>
       <c r="E22">
-        <v>0.9865605827527556</v>
+        <v>0.9946605381501319</v>
       </c>
       <c r="F22">
-        <v>1.000624904189798</v>
+        <v>0.9956407471254869</v>
       </c>
       <c r="G22">
-        <v>1.017632793097454</v>
+        <v>0.9901345802959458</v>
       </c>
       <c r="H22">
-        <v>1.00029812976866</v>
+        <v>1.024586214661496</v>
       </c>
       <c r="I22">
-        <v>1.023821600789102</v>
+        <v>1.041339981610421</v>
       </c>
       <c r="J22">
-        <v>1.00029812976866</v>
+        <v>1.024586214661496</v>
       </c>
       <c r="K22">
-        <v>1.023821600789102</v>
+        <v>1.041339981610421</v>
       </c>
       <c r="L22">
-        <v>1.017632793097454</v>
+        <v>0.9901345802959458</v>
       </c>
       <c r="M22">
-        <v>1.008965461433057</v>
+        <v>1.007360397478721</v>
       </c>
       <c r="N22">
-        <v>1.008965461433057</v>
+        <v>1.007360397478721</v>
       </c>
       <c r="O22">
-        <v>1.001497168539623</v>
+        <v>1.003127111035858</v>
       </c>
       <c r="P22">
-        <v>1.013917507885072</v>
+        <v>1.018686925522621</v>
       </c>
       <c r="Q22">
-        <v>1.013917507885072</v>
+        <v>1.018686925522621</v>
       </c>
       <c r="R22">
-        <v>1.016393531111079</v>
+        <v>1.024350189544571</v>
       </c>
       <c r="S22">
-        <v>1.016393531111079</v>
+        <v>1.024350189544571</v>
       </c>
       <c r="T22">
-        <v>1.003291066913958</v>
+        <v>1.006109179631113</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.059869219165151</v>
+      </c>
+      <c r="D23">
+        <v>0.9841786959919395</v>
+      </c>
+      <c r="E23">
+        <v>0.9907554162013842</v>
+      </c>
+      <c r="F23">
+        <v>0.9931841348951113</v>
+      </c>
+      <c r="G23">
+        <v>0.9834437710370558</v>
+      </c>
+      <c r="H23">
+        <v>1.059735053009184</v>
+      </c>
+      <c r="I23">
+        <v>1.059869219165151</v>
+      </c>
+      <c r="J23">
+        <v>1.059735053009184</v>
+      </c>
+      <c r="K23">
+        <v>1.059869219165151</v>
+      </c>
+      <c r="L23">
+        <v>0.9834437710370558</v>
+      </c>
+      <c r="M23">
+        <v>1.02158941202312</v>
+      </c>
+      <c r="N23">
+        <v>1.02158941202312</v>
+      </c>
+      <c r="O23">
+        <v>1.011311413415875</v>
+      </c>
+      <c r="P23">
+        <v>1.03434934773713</v>
+      </c>
+      <c r="Q23">
+        <v>1.03434934773713</v>
+      </c>
+      <c r="R23">
+        <v>1.040729315594136</v>
+      </c>
+      <c r="S23">
+        <v>1.040729315594136</v>
+      </c>
+      <c r="T23">
+        <v>1.011861048383304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="D24">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="E24">
+        <v>1.02046059657031</v>
+      </c>
+      <c r="F24">
+        <v>1.147339775608283</v>
+      </c>
+      <c r="G24">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="H24">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="I24">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="J24">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="K24">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="L24">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="M24">
+        <v>0.836449840969179</v>
+      </c>
+      <c r="N24">
+        <v>0.836449840969179</v>
+      </c>
+      <c r="O24">
+        <v>0.8977867595028893</v>
+      </c>
+      <c r="P24">
+        <v>0.7155433624834081</v>
+      </c>
+      <c r="Q24">
+        <v>0.7155433624834083</v>
+      </c>
+      <c r="R24">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="S24">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="T24">
+        <v>0.8330586654882076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="D25">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="E25">
+        <v>1.034762081401286</v>
+      </c>
+      <c r="F25">
+        <v>0.792883474536294</v>
+      </c>
+      <c r="G25">
+        <v>0.4915436637177757</v>
+      </c>
+      <c r="H25">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="I25">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="J25">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="K25">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="L25">
+        <v>0.4915436637177757</v>
+      </c>
+      <c r="M25">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="N25">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="O25">
+        <v>1.079862813851559</v>
+      </c>
+      <c r="P25">
+        <v>1.252375017550995</v>
+      </c>
+      <c r="Q25">
+        <v>1.252375017550995</v>
+      </c>
+      <c r="R25">
+        <v>1.327355936288145</v>
+      </c>
+      <c r="S25">
+        <v>1.327355936288145</v>
+      </c>
+      <c r="T25">
+        <v>1.193245555479227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="D26">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="E26">
+        <v>2.452011665041457</v>
+      </c>
+      <c r="F26">
+        <v>0.1665402680163802</v>
+      </c>
+      <c r="G26">
+        <v>0.209749771944535</v>
+      </c>
+      <c r="H26">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="I26">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="J26">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="K26">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="L26">
+        <v>0.209749771944535</v>
+      </c>
+      <c r="M26">
+        <v>2.584360505335524</v>
+      </c>
+      <c r="N26">
+        <v>2.584360505335524</v>
+      </c>
+      <c r="O26">
+        <v>2.540244225237501</v>
+      </c>
+      <c r="P26">
+        <v>1.737865538965274</v>
+      </c>
+      <c r="Q26">
+        <v>1.737865538965274</v>
+      </c>
+      <c r="R26">
+        <v>1.314618055780149</v>
+      </c>
+      <c r="S26">
+        <v>1.314618055780149</v>
+      </c>
+      <c r="T26">
+        <v>1.305457620071801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="D27">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="E27">
+        <v>1.558998625137756</v>
+      </c>
+      <c r="F27">
+        <v>0.9108226420960556</v>
+      </c>
+      <c r="G27">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="H27">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="I27">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="J27">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="K27">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="L27">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="M27">
+        <v>0.8360598126674048</v>
+      </c>
+      <c r="N27">
+        <v>0.8360598126674048</v>
+      </c>
+      <c r="O27">
+        <v>1.077039416824189</v>
+      </c>
+      <c r="P27">
+        <v>0.7682000746724519</v>
+      </c>
+      <c r="Q27">
+        <v>0.7682000746724519</v>
+      </c>
+      <c r="R27">
+        <v>0.7342702056749754</v>
+      </c>
+      <c r="S27">
+        <v>0.7342702056749754</v>
+      </c>
+      <c r="T27">
+        <v>0.8087205061412738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.062728947433483</v>
+      </c>
+      <c r="D28">
+        <v>2.26116311508523</v>
+      </c>
+      <c r="E28">
+        <v>0.6553280412933028</v>
+      </c>
+      <c r="F28">
+        <v>0.8725297630802281</v>
+      </c>
+      <c r="G28">
+        <v>1.101099253437838</v>
+      </c>
+      <c r="H28">
+        <v>1.567051047594804</v>
+      </c>
+      <c r="I28">
+        <v>1.062728947433483</v>
+      </c>
+      <c r="J28">
+        <v>1.567051047594804</v>
+      </c>
+      <c r="K28">
+        <v>1.062728947433483</v>
+      </c>
+      <c r="L28">
+        <v>1.101099253437838</v>
+      </c>
+      <c r="M28">
+        <v>1.334075150516321</v>
+      </c>
+      <c r="N28">
+        <v>1.334075150516321</v>
+      </c>
+      <c r="O28">
+        <v>1.107826114108648</v>
+      </c>
+      <c r="P28">
+        <v>1.243626416155375</v>
+      </c>
+      <c r="Q28">
+        <v>1.243626416155375</v>
+      </c>
+      <c r="R28">
+        <v>1.198402048974902</v>
+      </c>
+      <c r="S28">
+        <v>1.198402048974902</v>
+      </c>
+      <c r="T28">
+        <v>1.253316694654148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.216473294000139</v>
+      </c>
+      <c r="D29">
+        <v>1.806525115264698</v>
+      </c>
+      <c r="E29">
+        <v>0.7318353041568593</v>
+      </c>
+      <c r="F29">
+        <v>0.9158383392790644</v>
+      </c>
+      <c r="G29">
+        <v>1.037105040499214</v>
+      </c>
+      <c r="H29">
+        <v>1.32591721571932</v>
+      </c>
+      <c r="I29">
+        <v>1.216473294000139</v>
+      </c>
+      <c r="J29">
+        <v>1.32591721571932</v>
+      </c>
+      <c r="K29">
+        <v>1.216473294000139</v>
+      </c>
+      <c r="L29">
+        <v>1.037105040499214</v>
+      </c>
+      <c r="M29">
+        <v>1.181511128109267</v>
+      </c>
+      <c r="N29">
+        <v>1.181511128109267</v>
+      </c>
+      <c r="O29">
+        <v>1.031619186791798</v>
+      </c>
+      <c r="P29">
+        <v>1.193165183406224</v>
+      </c>
+      <c r="Q29">
+        <v>1.193165183406224</v>
+      </c>
+      <c r="R29">
+        <v>1.198992211054703</v>
+      </c>
+      <c r="S29">
+        <v>1.198992211054703</v>
+      </c>
+      <c r="T29">
+        <v>1.172282384819882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.513795381184402</v>
+      </c>
+      <c r="D30">
+        <v>0.9010365970874347</v>
+      </c>
+      <c r="E30">
+        <v>0.8857341767166198</v>
+      </c>
+      <c r="F30">
+        <v>1.002124812880872</v>
+      </c>
+      <c r="G30">
+        <v>0.910232477253441</v>
+      </c>
+      <c r="H30">
+        <v>0.8547939811050118</v>
+      </c>
+      <c r="I30">
+        <v>1.513795381184402</v>
+      </c>
+      <c r="J30">
+        <v>0.8547939811050118</v>
+      </c>
+      <c r="K30">
+        <v>1.513795381184402</v>
+      </c>
+      <c r="L30">
+        <v>0.910232477253441</v>
+      </c>
+      <c r="M30">
+        <v>0.8825132291792264</v>
+      </c>
+      <c r="N30">
+        <v>0.8825132291792264</v>
+      </c>
+      <c r="O30">
+        <v>0.8835868783583575</v>
+      </c>
+      <c r="P30">
+        <v>1.092940613180952</v>
+      </c>
+      <c r="Q30">
+        <v>1.092940613180952</v>
+      </c>
+      <c r="R30">
+        <v>1.198154305181814</v>
+      </c>
+      <c r="S30">
+        <v>1.198154305181814</v>
+      </c>
+      <c r="T30">
+        <v>1.01128623770463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="D31">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="E31">
+        <v>0.8591250695699229</v>
+      </c>
+      <c r="F31">
+        <v>0.9851825452205999</v>
+      </c>
+      <c r="G31">
+        <v>0.8460086031697764</v>
+      </c>
+      <c r="H31">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="I31">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="J31">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="K31">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="L31">
+        <v>0.8460086031697764</v>
+      </c>
+      <c r="M31">
+        <v>0.8626619202915655</v>
+      </c>
+      <c r="N31">
+        <v>0.8626619202915655</v>
+      </c>
+      <c r="O31">
+        <v>0.8614829700510179</v>
+      </c>
+      <c r="P31">
+        <v>1.161752561657627</v>
+      </c>
+      <c r="Q31">
+        <v>1.161752561657627</v>
+      </c>
+      <c r="R31">
+        <v>1.311297882340658</v>
+      </c>
+      <c r="S31">
+        <v>1.311297882340658</v>
+      </c>
+      <c r="T31">
+        <v>1.029513163614374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8998707548821646</v>
+      </c>
+      <c r="D32">
+        <v>2.677525327745206</v>
+      </c>
+      <c r="E32">
+        <v>0.590349859337534</v>
+      </c>
+      <c r="F32">
+        <v>0.8175100732821918</v>
+      </c>
+      <c r="G32">
+        <v>1.148466118401369</v>
+      </c>
+      <c r="H32">
+        <v>1.995201695223288</v>
+      </c>
+      <c r="I32">
+        <v>0.8998707548821646</v>
+      </c>
+      <c r="J32">
+        <v>1.995201695223288</v>
+      </c>
+      <c r="K32">
+        <v>0.8998707548821646</v>
+      </c>
+      <c r="L32">
+        <v>1.148466118401369</v>
+      </c>
+      <c r="M32">
+        <v>1.571833906812329</v>
+      </c>
+      <c r="N32">
+        <v>1.571833906812329</v>
+      </c>
+      <c r="O32">
+        <v>1.244672557654064</v>
+      </c>
+      <c r="P32">
+        <v>1.347846189502274</v>
+      </c>
+      <c r="Q32">
+        <v>1.347846189502274</v>
+      </c>
+      <c r="R32">
+        <v>1.235852330847247</v>
+      </c>
+      <c r="S32">
+        <v>1.235852330847247</v>
+      </c>
+      <c r="T32">
+        <v>1.354820638145292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>2.11789531256321</v>
+      </c>
+      <c r="D33">
+        <v>0.001638627301052632</v>
+      </c>
+      <c r="E33">
+        <v>1.881666172631579</v>
+      </c>
+      <c r="F33">
+        <v>0.3592011805052631</v>
+      </c>
+      <c r="G33">
+        <v>0.06229593718947368</v>
+      </c>
+      <c r="H33">
+        <v>3.430424519099474</v>
+      </c>
+      <c r="I33">
+        <v>2.11789531256321</v>
+      </c>
+      <c r="J33">
+        <v>3.430424519099474</v>
+      </c>
+      <c r="K33">
+        <v>2.11789531256321</v>
+      </c>
+      <c r="L33">
+        <v>0.06229593718947368</v>
+      </c>
+      <c r="M33">
+        <v>1.746360228144474</v>
+      </c>
+      <c r="N33">
+        <v>1.746360228144474</v>
+      </c>
+      <c r="O33">
+        <v>1.791462209640176</v>
+      </c>
+      <c r="P33">
+        <v>1.870205256284053</v>
+      </c>
+      <c r="Q33">
+        <v>1.870205256284053</v>
+      </c>
+      <c r="R33">
+        <v>1.932127770353842</v>
+      </c>
+      <c r="S33">
+        <v>1.932127770353842</v>
+      </c>
+      <c r="T33">
+        <v>1.308853624881675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="D34">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="E34">
+        <v>0.5875345469944737</v>
+      </c>
+      <c r="F34">
+        <v>0.8011603088052631</v>
+      </c>
+      <c r="G34">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="H34">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="I34">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="J34">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="K34">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="L34">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="M34">
+        <v>1.610887203055263</v>
+      </c>
+      <c r="N34">
+        <v>1.610887203055263</v>
+      </c>
+      <c r="O34">
+        <v>1.269769651035</v>
+      </c>
+      <c r="P34">
+        <v>1.429189784383561</v>
+      </c>
+      <c r="Q34">
+        <v>1.429189784383561</v>
+      </c>
+      <c r="R34">
+        <v>1.33834107504771</v>
+      </c>
+      <c r="S34">
+        <v>1.33834107504771</v>
+      </c>
+      <c r="T34">
+        <v>1.374708630782526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>4.582168773820876</v>
+      </c>
+      <c r="D35">
+        <v>0.451020274558218</v>
+      </c>
+      <c r="E35">
+        <v>0.4725121917396428</v>
+      </c>
+      <c r="F35">
+        <v>0.8044454037574047</v>
+      </c>
+      <c r="G35">
+        <v>0.4691449368573655</v>
+      </c>
+      <c r="H35">
+        <v>0.4147466676310699</v>
+      </c>
+      <c r="I35">
+        <v>4.582168773820876</v>
+      </c>
+      <c r="J35">
+        <v>0.4147466676310699</v>
+      </c>
+      <c r="K35">
+        <v>4.582168773820876</v>
+      </c>
+      <c r="L35">
+        <v>0.4691449368573655</v>
+      </c>
+      <c r="M35">
+        <v>0.4419458022442176</v>
+      </c>
+      <c r="N35">
+        <v>0.4419458022442176</v>
+      </c>
+      <c r="O35">
+        <v>0.4521345987426927</v>
+      </c>
+      <c r="P35">
+        <v>1.822020126103104</v>
+      </c>
+      <c r="Q35">
+        <v>1.822020126103104</v>
+      </c>
+      <c r="R35">
+        <v>2.512057288032547</v>
+      </c>
+      <c r="S35">
+        <v>2.512057288032547</v>
+      </c>
+      <c r="T35">
+        <v>1.19900637472743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="D36">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="E36">
+        <v>0.9989831543793731</v>
+      </c>
+      <c r="F36">
+        <v>1.001493994137479</v>
+      </c>
+      <c r="G36">
+        <v>1.002367661560521</v>
+      </c>
+      <c r="H36">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="I36">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="J36">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="K36">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="L36">
+        <v>1.002367661560521</v>
+      </c>
+      <c r="M36">
+        <v>0.9964421845398654</v>
+      </c>
+      <c r="N36">
+        <v>0.9964421845398654</v>
+      </c>
+      <c r="O36">
+        <v>0.997289174486368</v>
+      </c>
+      <c r="P36">
+        <v>1.000713264080121</v>
+      </c>
+      <c r="Q36">
+        <v>1.000713264080122</v>
+      </c>
+      <c r="R36">
+        <v>1.002848803850249</v>
+      </c>
+      <c r="S36">
+        <v>1.002848803850249</v>
+      </c>
+      <c r="T36">
+        <v>0.9980507923143905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="D37">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="E37">
+        <v>1.000386502618325</v>
+      </c>
+      <c r="F37">
+        <v>0.9979580673623522</v>
+      </c>
+      <c r="G37">
+        <v>0.9943624284904866</v>
+      </c>
+      <c r="H37">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="I37">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="J37">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="K37">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="L37">
+        <v>0.9943624284904866</v>
+      </c>
+      <c r="M37">
+        <v>1.004061391115996</v>
+      </c>
+      <c r="N37">
+        <v>1.004061391115996</v>
+      </c>
+      <c r="O37">
+        <v>1.002836428283439</v>
+      </c>
+      <c r="P37">
+        <v>1.000688812290571</v>
+      </c>
+      <c r="Q37">
+        <v>1.000688812290571</v>
+      </c>
+      <c r="R37">
+        <v>0.9990025228778583</v>
+      </c>
+      <c r="S37">
+        <v>0.9990025228778583</v>
+      </c>
+      <c r="T37">
+        <v>1.003197039037661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="D38">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="E38">
+        <v>0.9865605827527556</v>
+      </c>
+      <c r="F38">
+        <v>1.000624904189798</v>
+      </c>
+      <c r="G38">
+        <v>1.017632793097454</v>
+      </c>
+      <c r="H38">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="I38">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="J38">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="K38">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="L38">
+        <v>1.017632793097454</v>
+      </c>
+      <c r="M38">
+        <v>1.008965461433057</v>
+      </c>
+      <c r="N38">
+        <v>1.008965461433057</v>
+      </c>
+      <c r="O38">
+        <v>1.001497168539623</v>
+      </c>
+      <c r="P38">
+        <v>1.013917507885072</v>
+      </c>
+      <c r="Q38">
+        <v>1.013917507885072</v>
+      </c>
+      <c r="R38">
+        <v>1.016393531111079</v>
+      </c>
+      <c r="S38">
+        <v>1.016393531111079</v>
+      </c>
+      <c r="T38">
+        <v>1.003291066913958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.061957687523567</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.901708431581948</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9767356723904453</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.006987106208106</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.05412377517706</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9189962377490069</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.061957687523567</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9189962377490069</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.061957687523567</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.05412377517706</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9865600064630333</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9865600064630333</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9832852284388373</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.011692566816544</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.011692566816544</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.0242588469933</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.0242588469933</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9867514851050222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.447026928272622</v>
+      </c>
+      <c r="D40">
+        <v>0.8746729245891567</v>
+      </c>
+      <c r="E40">
+        <v>0.9208570206899671</v>
+      </c>
+      <c r="F40">
+        <v>0.9961661514462269</v>
+      </c>
+      <c r="G40">
+        <v>0.8958434101527728</v>
+      </c>
+      <c r="H40">
+        <v>0.9013365646971886</v>
+      </c>
+      <c r="I40">
+        <v>1.447026928272622</v>
+      </c>
+      <c r="J40">
+        <v>0.9013365646971886</v>
+      </c>
+      <c r="K40">
+        <v>1.447026928272622</v>
+      </c>
+      <c r="L40">
+        <v>0.8958434101527728</v>
+      </c>
+      <c r="M40">
+        <v>0.8985899874249808</v>
+      </c>
+      <c r="N40">
+        <v>0.8985899874249808</v>
+      </c>
+      <c r="O40">
+        <v>0.9060123318466428</v>
+      </c>
+      <c r="P40">
+        <v>1.081402301040861</v>
+      </c>
+      <c r="Q40">
+        <v>1.081402301040861</v>
+      </c>
+      <c r="R40">
+        <v>1.172808457848801</v>
+      </c>
+      <c r="S40">
+        <v>1.172808457848801</v>
+      </c>
+      <c r="T40">
+        <v>1.005983833307989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.112101464419362</v>
+      </c>
+      <c r="D41">
+        <v>1.3017754595427</v>
+      </c>
+      <c r="E41">
+        <v>0.7337121654691977</v>
+      </c>
+      <c r="F41">
+        <v>1.126396093456139</v>
+      </c>
+      <c r="G41">
+        <v>1.122140157576804</v>
+      </c>
+      <c r="H41">
+        <v>0.5161395353202051</v>
+      </c>
+      <c r="I41">
+        <v>1.112101464419362</v>
+      </c>
+      <c r="J41">
+        <v>0.5161395353202051</v>
+      </c>
+      <c r="K41">
+        <v>1.112101464419362</v>
+      </c>
+      <c r="L41">
+        <v>1.122140157576804</v>
+      </c>
+      <c r="M41">
+        <v>0.8191398464485047</v>
+      </c>
+      <c r="N41">
+        <v>0.8191398464485047</v>
+      </c>
+      <c r="O41">
+        <v>0.7906639527887357</v>
+      </c>
+      <c r="P41">
+        <v>0.9167937191054571</v>
+      </c>
+      <c r="Q41">
+        <v>0.9167937191054571</v>
+      </c>
+      <c r="R41">
+        <v>0.9656206554339333</v>
+      </c>
+      <c r="S41">
+        <v>0.9656206554339333</v>
+      </c>
+      <c r="T41">
+        <v>0.9853774792974015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.380542607347321</v>
+      </c>
+      <c r="D42">
+        <v>1.50952257457104</v>
+      </c>
+      <c r="E42">
+        <v>0.6250765187495665</v>
+      </c>
+      <c r="F42">
+        <v>1.116152395029397</v>
+      </c>
+      <c r="G42">
+        <v>1.033268566286217</v>
+      </c>
+      <c r="H42">
+        <v>0.5955640496851504</v>
+      </c>
+      <c r="I42">
+        <v>1.380542607347321</v>
+      </c>
+      <c r="J42">
+        <v>0.5955640496851504</v>
+      </c>
+      <c r="K42">
+        <v>1.380542607347321</v>
+      </c>
+      <c r="L42">
+        <v>1.033268566286217</v>
+      </c>
+      <c r="M42">
+        <v>0.8144163079856839</v>
+      </c>
+      <c r="N42">
+        <v>0.8144163079856839</v>
+      </c>
+      <c r="O42">
+        <v>0.7513030449069781</v>
+      </c>
+      <c r="P42">
+        <v>1.003125074439563</v>
+      </c>
+      <c r="Q42">
+        <v>1.003125074439563</v>
+      </c>
+      <c r="R42">
+        <v>1.097479457666502</v>
+      </c>
+      <c r="S42">
+        <v>1.097479457666502</v>
+      </c>
+      <c r="T42">
+        <v>1.043354451944782</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005276975179548</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="D3">
-        <v>1.03600041320105</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="E3">
-        <v>1.004971985811638</v>
+        <v>0.998339724328008</v>
       </c>
       <c r="F3">
-        <v>1.005276975179548</v>
+        <v>0.9990729132372146</v>
       </c>
       <c r="G3">
-        <v>1.07464665953904</v>
+        <v>0.9964841532641266</v>
       </c>
       <c r="H3">
-        <v>0.9806354027008221</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="I3">
-        <v>0.9911759234303122</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="J3">
-        <v>1.03600041320105</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="K3">
-        <v>1.005276975179548</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="L3">
-        <v>1.004971985811638</v>
+        <v>0.9964841532641266</v>
       </c>
       <c r="M3">
-        <v>1.020486199506344</v>
+        <v>1.00114154240139</v>
       </c>
       <c r="N3">
-        <v>1.020486199506344</v>
+        <v>1.00114154240139</v>
       </c>
       <c r="O3">
-        <v>1.00720260057117</v>
+        <v>1.000207603043596</v>
       </c>
       <c r="P3">
-        <v>1.015416458064079</v>
+        <v>1.005378930478342</v>
       </c>
       <c r="Q3">
-        <v>1.015416458064079</v>
+        <v>1.005378930478342</v>
       </c>
       <c r="R3">
-        <v>1.012881587342946</v>
+        <v>1.007497624516817</v>
       </c>
       <c r="S3">
-        <v>1.012881587342946</v>
+        <v>1.007497624516817</v>
       </c>
       <c r="T3">
-        <v>1.015451226643735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.001667372059259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005414003669555</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="D4">
-        <v>1.067304768508322</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="E4">
-        <v>1.012508622009755</v>
+        <v>0.9208570206899671</v>
       </c>
       <c r="F4">
-        <v>1.005414003669555</v>
+        <v>0.9961661514462269</v>
       </c>
       <c r="G4">
-        <v>1.141933910465841</v>
+        <v>0.8958434101527728</v>
       </c>
       <c r="H4">
-        <v>0.9620644023438698</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="I4">
-        <v>0.9845458942831455</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="J4">
-        <v>1.067304768508322</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="K4">
-        <v>1.005414003669555</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="L4">
-        <v>1.012508622009755</v>
+        <v>0.8958434101527728</v>
       </c>
       <c r="M4">
-        <v>1.039906695259039</v>
+        <v>0.8985899874249808</v>
       </c>
       <c r="N4">
-        <v>1.039906695259039</v>
+        <v>0.8985899874249808</v>
       </c>
       <c r="O4">
-        <v>1.013959264287316</v>
+        <v>0.9060123318466428</v>
       </c>
       <c r="P4">
-        <v>1.028409131395877</v>
+        <v>1.081402301040861</v>
       </c>
       <c r="Q4">
-        <v>1.028409131395877</v>
+        <v>1.081402301040861</v>
       </c>
       <c r="R4">
-        <v>1.022660349464297</v>
+        <v>1.172808457848801</v>
       </c>
       <c r="S4">
-        <v>1.022660349464297</v>
+        <v>1.172808457848801</v>
       </c>
       <c r="T4">
-        <v>1.028961933546748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.005983833307989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024006648125157</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="D5">
-        <v>1.136261537240609</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="E5">
-        <v>1.025447724311187</v>
+        <v>0.8535656351248198</v>
       </c>
       <c r="F5">
-        <v>1.024006648125157</v>
+        <v>0.9871160619869618</v>
       </c>
       <c r="G5">
-        <v>1.280146591999447</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="H5">
-        <v>0.9192181716550686</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="I5">
-        <v>0.9629130905176178</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="J5">
-        <v>1.136261537240609</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="K5">
-        <v>1.024006648125157</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="L5">
-        <v>1.025447724311187</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="M5">
-        <v>1.080854630775898</v>
+        <v>0.8735442538444655</v>
       </c>
       <c r="N5">
-        <v>1.080854630775898</v>
+        <v>0.8735442538444655</v>
       </c>
       <c r="O5">
-        <v>1.026975811068955</v>
+        <v>0.8668847142712502</v>
       </c>
       <c r="P5">
-        <v>1.061905303225651</v>
+        <v>1.133026452366847</v>
       </c>
       <c r="Q5">
-        <v>1.061905303225651</v>
+        <v>1.133026452366847</v>
       </c>
       <c r="R5">
-        <v>1.052430639450528</v>
+        <v>1.262767551628038</v>
       </c>
       <c r="S5">
-        <v>1.052430639450528</v>
+        <v>1.262767551628038</v>
       </c>
       <c r="T5">
-        <v>1.057998960641515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.030073224261543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.111510178399358</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="D6">
-        <v>1.276797081617945</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="E6">
-        <v>0.9752732093789624</v>
+        <v>0.4725121917396428</v>
       </c>
       <c r="F6">
-        <v>1.111510178399358</v>
+        <v>0.8044454037574047</v>
       </c>
       <c r="G6">
-        <v>1.503450978919303</v>
+        <v>0.4691449368573655</v>
       </c>
       <c r="H6">
-        <v>0.8298265858005867</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="I6">
-        <v>0.9246304468032864</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="J6">
-        <v>1.276797081617945</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="K6">
-        <v>1.111510178399358</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="L6">
-        <v>0.9752732093789624</v>
+        <v>0.4691449368573655</v>
       </c>
       <c r="M6">
-        <v>1.126035145498454</v>
+        <v>0.4419458022442176</v>
       </c>
       <c r="N6">
-        <v>1.126035145498454</v>
+        <v>0.4419458022442176</v>
       </c>
       <c r="O6">
-        <v>1.027298958932498</v>
+        <v>0.4521345987426927</v>
       </c>
       <c r="P6">
-        <v>1.121193489798755</v>
+        <v>1.822020126103104</v>
       </c>
       <c r="Q6">
-        <v>1.121193489798755</v>
+        <v>1.822020126103104</v>
       </c>
       <c r="R6">
-        <v>1.118772661948906</v>
+        <v>2.512057288032547</v>
       </c>
       <c r="S6">
-        <v>1.118772661948906</v>
+        <v>2.512057288032547</v>
       </c>
       <c r="T6">
-        <v>1.103581413486574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.19900637472743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.006521569453629</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="D7">
-        <v>1.00104895295471</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="E7">
-        <v>0.9988869136085736</v>
+        <v>0.9803386958162303</v>
       </c>
       <c r="F7">
-        <v>1.006521569453629</v>
+        <v>0.992039906837999</v>
       </c>
       <c r="G7">
-        <v>0.9985761432212137</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="H7">
-        <v>0.9990683166330142</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="I7">
-        <v>0.9995430243973148</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="J7">
-        <v>1.00104895295471</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="K7">
-        <v>1.006521569453629</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="L7">
-        <v>0.9988869136085736</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="M7">
-        <v>0.9999679332816417</v>
+        <v>1.021066671039856</v>
       </c>
       <c r="N7">
-        <v>0.9999679332816417</v>
+        <v>1.021066671039856</v>
       </c>
       <c r="O7">
-        <v>0.9996680610654325</v>
+        <v>1.007490679298647</v>
       </c>
       <c r="P7">
-        <v>1.002152478672304</v>
+        <v>1.012599050675465</v>
       </c>
       <c r="Q7">
-        <v>1.002152478672304</v>
+        <v>1.012599050675465</v>
       </c>
       <c r="R7">
-        <v>1.003244751367635</v>
+        <v>1.008365240493269</v>
       </c>
       <c r="S7">
-        <v>1.003244751367635</v>
+        <v>1.008365240493269</v>
       </c>
       <c r="T7">
-        <v>1.000607486711409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.015574246438401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.013853706632245</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="D8">
-        <v>1.005798931538654</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="E8">
-        <v>0.9964841532641274</v>
+        <v>1.000386502618325</v>
       </c>
       <c r="F8">
-        <v>1.013853706632245</v>
+        <v>0.9979580673623522</v>
       </c>
       <c r="G8">
-        <v>0.9964548033553059</v>
+        <v>0.9943624284904866</v>
       </c>
       <c r="H8">
-        <v>0.9983397243280075</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="I8">
-        <v>0.9990729132372156</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="J8">
-        <v>1.005798931538654</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="K8">
-        <v>1.013853706632245</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="L8">
-        <v>0.9964841532641274</v>
+        <v>0.9943624284904866</v>
       </c>
       <c r="M8">
-        <v>1.001141542401391</v>
+        <v>1.004061391115996</v>
       </c>
       <c r="N8">
-        <v>1.001141542401391</v>
+        <v>1.004061391115996</v>
       </c>
       <c r="O8">
-        <v>1.000207603043596</v>
+        <v>1.002836428283439</v>
       </c>
       <c r="P8">
-        <v>1.005378930478342</v>
+        <v>1.000688812290571</v>
       </c>
       <c r="Q8">
-        <v>1.005378930478342</v>
+        <v>1.000688812290571</v>
       </c>
       <c r="R8">
-        <v>1.007497624516818</v>
+        <v>0.9990025228778583</v>
       </c>
       <c r="S8">
-        <v>1.007497624516818</v>
+        <v>0.9990025228778583</v>
       </c>
       <c r="T8">
-        <v>1.001667372059259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.003197039037661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.017333196793282</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="D9">
-        <v>1.014034029728343</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="E9">
-        <v>0.9954910294956575</v>
+        <v>0.9620644023438698</v>
       </c>
       <c r="F9">
-        <v>1.017333196793282</v>
+        <v>0.9845458942831455</v>
       </c>
       <c r="G9">
-        <v>0.9953877755528782</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="H9">
-        <v>0.9979134023610984</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="I9">
-        <v>0.9979261814041912</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="J9">
-        <v>1.014034029728343</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="K9">
-        <v>1.017333196793282</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="L9">
-        <v>0.9954910294956575</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="M9">
-        <v>1.004762529612</v>
+        <v>1.039906695259039</v>
       </c>
       <c r="N9">
-        <v>1.004762529612</v>
+        <v>1.039906695259039</v>
       </c>
       <c r="O9">
-        <v>1.002479487195033</v>
+        <v>1.013959264287316</v>
       </c>
       <c r="P9">
-        <v>1.008952752005761</v>
+        <v>1.028409131395877</v>
       </c>
       <c r="Q9">
-        <v>1.008952752005761</v>
+        <v>1.028409131395877</v>
       </c>
       <c r="R9">
-        <v>1.011047863202641</v>
+        <v>1.022660349464297</v>
       </c>
       <c r="S9">
-        <v>1.011047863202641</v>
+        <v>1.022660349464297</v>
       </c>
       <c r="T9">
-        <v>1.003014269222575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.028961933546748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.041339981610421</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="D10">
-        <v>1.024586214661496</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="E10">
-        <v>0.9901345802959458</v>
+        <v>0.4598388941808733</v>
       </c>
       <c r="F10">
-        <v>1.041339981610421</v>
+        <v>0.7947788762810692</v>
       </c>
       <c r="G10">
-        <v>0.9902930159431937</v>
+        <v>0.4344101240797893</v>
       </c>
       <c r="H10">
-        <v>0.9946605381501319</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="I10">
-        <v>0.9956407471254869</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="J10">
-        <v>1.024586214661496</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="K10">
-        <v>1.041339981610421</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="L10">
-        <v>0.9901345802959458</v>
+        <v>0.4344101240797893</v>
       </c>
       <c r="M10">
-        <v>1.007360397478721</v>
+        <v>0.4393295969092603</v>
       </c>
       <c r="N10">
-        <v>1.007360397478721</v>
+        <v>0.4393295969092603</v>
       </c>
       <c r="O10">
-        <v>1.003127111035858</v>
+        <v>0.4461660293331313</v>
       </c>
       <c r="P10">
-        <v>1.018686925522621</v>
+        <v>1.859201777772909</v>
       </c>
       <c r="Q10">
-        <v>1.018686925522621</v>
+        <v>1.859201777772909</v>
       </c>
       <c r="R10">
-        <v>1.024350189544571</v>
+        <v>2.569137868204733</v>
       </c>
       <c r="S10">
-        <v>1.024350189544571</v>
+        <v>2.569137868204733</v>
       </c>
       <c r="T10">
-        <v>1.006109179631113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.210762968630299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.059869219165151</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="D11">
-        <v>1.059735053009184</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="E11">
-        <v>0.9834437710370559</v>
+        <v>0.5870353601824573</v>
       </c>
       <c r="F11">
-        <v>1.059869219165151</v>
+        <v>1.16513333233508</v>
       </c>
       <c r="G11">
-        <v>0.9841786959919395</v>
+        <v>1.073644975028989</v>
       </c>
       <c r="H11">
-        <v>0.9907554162013839</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="I11">
-        <v>0.9931841348951113</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="J11">
-        <v>1.059735053009184</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="K11">
-        <v>1.059869219165151</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="L11">
-        <v>0.9834437710370559</v>
+        <v>1.073644975028989</v>
       </c>
       <c r="M11">
-        <v>1.02158941202312</v>
+        <v>0.7092930825291934</v>
       </c>
       <c r="N11">
-        <v>1.02158941202312</v>
+        <v>0.7092930825291934</v>
       </c>
       <c r="O11">
-        <v>1.011311413415875</v>
+        <v>0.6685405084136148</v>
       </c>
       <c r="P11">
-        <v>1.03434934773713</v>
+        <v>0.988568820940633</v>
       </c>
       <c r="Q11">
-        <v>1.03434934773713</v>
+        <v>0.988568820940633</v>
       </c>
       <c r="R11">
-        <v>1.040729315594136</v>
+        <v>1.128206690146353</v>
       </c>
       <c r="S11">
-        <v>1.040729315594136</v>
+        <v>1.128206690146353</v>
       </c>
       <c r="T11">
-        <v>1.011861048383304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9867192143100684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4737304055118667</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="D12">
-        <v>0.3218313991703866</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="E12">
-        <v>1.351068282767971</v>
+        <v>0.8256153012275429</v>
       </c>
       <c r="F12">
-        <v>0.4737304055118667</v>
+        <v>0.9695107250867364</v>
       </c>
       <c r="G12">
-        <v>0.6839215333004275</v>
+        <v>0.8139834003677884</v>
       </c>
       <c r="H12">
-        <v>1.02046059657031</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="I12">
-        <v>1.147339775608283</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="J12">
-        <v>0.3218313991703866</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="K12">
-        <v>0.4737304055118667</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="L12">
-        <v>1.351068282767971</v>
+        <v>0.8139834003677884</v>
       </c>
       <c r="M12">
-        <v>0.836449840969179</v>
+        <v>0.8197410793113146</v>
       </c>
       <c r="N12">
-        <v>0.836449840969179</v>
+        <v>0.8197410793113146</v>
       </c>
       <c r="O12">
-        <v>0.8977867595028893</v>
+        <v>0.8216991532833907</v>
       </c>
       <c r="P12">
-        <v>0.7155433624834083</v>
+        <v>1.207971454440606</v>
       </c>
       <c r="Q12">
-        <v>0.7155433624834081</v>
+        <v>1.207971454440606</v>
       </c>
       <c r="R12">
-        <v>0.6550901232405228</v>
+        <v>1.402086642005251</v>
       </c>
       <c r="S12">
-        <v>0.6550901232405228</v>
+        <v>1.402086642005251</v>
       </c>
       <c r="T12">
-        <v>0.8330586654882076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.041934868272797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.552298692499595</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="D13">
-        <v>1.713282696435615</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="E13">
-        <v>0.4915436637177756</v>
+        <v>1.068792979593303</v>
       </c>
       <c r="F13">
-        <v>1.552298692499595</v>
+        <v>0.9483144583922445</v>
       </c>
       <c r="G13">
-        <v>1.5747027242848</v>
+        <v>0.9299353547439732</v>
       </c>
       <c r="H13">
-        <v>1.034762081401286</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="I13">
-        <v>0.792883474536294</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="J13">
-        <v>1.713282696435615</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="K13">
-        <v>1.552298692499595</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="L13">
-        <v>0.4915436637177756</v>
+        <v>0.9299353547439732</v>
       </c>
       <c r="M13">
-        <v>1.102413180076695</v>
+        <v>1.106235578065559</v>
       </c>
       <c r="N13">
-        <v>1.102413180076695</v>
+        <v>1.106235578065559</v>
       </c>
       <c r="O13">
-        <v>1.079862813851559</v>
+        <v>1.093754711908141</v>
       </c>
       <c r="P13">
-        <v>1.252375017550995</v>
+        <v>1.077966206977668</v>
       </c>
       <c r="Q13">
-        <v>1.252375017550995</v>
+        <v>1.077966206977668</v>
       </c>
       <c r="R13">
-        <v>1.327355936288145</v>
+        <v>1.063831521433722</v>
       </c>
       <c r="S13">
-        <v>1.327355936288145</v>
+        <v>1.063831521433722</v>
       </c>
       <c r="T13">
-        <v>1.193245555479227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.041624421568063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.04487560622477395</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="D14">
-        <v>4.958971238726513</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="E14">
-        <v>0.2097497719445351</v>
+        <v>0.05715137000000005</v>
       </c>
       <c r="F14">
-        <v>0.04487560622477395</v>
+        <v>0.6037766099999995</v>
       </c>
       <c r="G14">
-        <v>0.000597170477148994</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="H14">
-        <v>2.452011665041457</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="I14">
-        <v>0.1665402680163803</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="J14">
-        <v>4.958971238726513</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="K14">
-        <v>0.04487560622477395</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="L14">
-        <v>0.2097497719445351</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="M14">
-        <v>2.584360505335524</v>
+        <v>0.01375457481999999</v>
       </c>
       <c r="N14">
-        <v>2.584360505335524</v>
+        <v>0.01375457481999999</v>
       </c>
       <c r="O14">
-        <v>2.540244225237501</v>
+        <v>0.02822017321333334</v>
       </c>
       <c r="P14">
-        <v>1.737865538965274</v>
+        <v>2.560703416546665</v>
       </c>
       <c r="Q14">
-        <v>1.737865538965274</v>
+        <v>2.560703416546665</v>
       </c>
       <c r="R14">
-        <v>1.314618055780149</v>
+        <v>3.834177837409998</v>
       </c>
       <c r="S14">
-        <v>1.314618055780149</v>
+        <v>3.834177837409998</v>
       </c>
       <c r="T14">
-        <v>1.305457620071801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.391753247523332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6324805986825459</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="D15">
-        <v>0.6311671708583744</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="E15">
-        <v>1.040952454476435</v>
+        <v>1.4427831</v>
       </c>
       <c r="F15">
-        <v>0.6324805986825459</v>
+        <v>0.0023948996</v>
       </c>
       <c r="G15">
-        <v>0.07790154559647507</v>
+        <v>0.0040031707</v>
       </c>
       <c r="H15">
-        <v>1.558998625137756</v>
+        <v>15.308083</v>
       </c>
       <c r="I15">
-        <v>0.9108226420960556</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J15">
-        <v>0.6311671708583744</v>
+        <v>15.308083</v>
       </c>
       <c r="K15">
-        <v>0.6324805986825459</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L15">
-        <v>1.040952454476435</v>
+        <v>0.0040031707</v>
       </c>
       <c r="M15">
-        <v>0.8360598126674048</v>
+        <v>7.65604308535</v>
       </c>
       <c r="N15">
-        <v>0.8360598126674048</v>
+        <v>7.65604308535</v>
       </c>
       <c r="O15">
-        <v>1.077039416824189</v>
+        <v>5.584956423566667</v>
       </c>
       <c r="P15">
-        <v>0.7682000746724519</v>
+        <v>5.10424494645</v>
       </c>
       <c r="Q15">
-        <v>0.7682000746724519</v>
+        <v>5.10424494645</v>
       </c>
       <c r="R15">
-        <v>0.7342702056749754</v>
+        <v>3.828345877</v>
       </c>
       <c r="S15">
-        <v>0.7342702056749754</v>
+        <v>3.828345877</v>
       </c>
       <c r="T15">
-        <v>0.8087205061412738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>2.792442859858333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.009255423160632</v>
+        <v>7.6546011</v>
       </c>
       <c r="D16">
-        <v>0.9905167075192092</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E16">
-        <v>1.002367661560521</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="F16">
-        <v>1.009255423160632</v>
+        <v>0.60377661</v>
       </c>
       <c r="G16">
-        <v>0.9856878131291257</v>
+        <v>0.026860481</v>
       </c>
       <c r="H16">
-        <v>0.9989831543793726</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I16">
-        <v>1.001493994137478</v>
+        <v>7.6546011</v>
       </c>
       <c r="J16">
-        <v>0.9905167075192092</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K16">
-        <v>1.009255423160632</v>
+        <v>7.6546011</v>
       </c>
       <c r="L16">
-        <v>1.002367661560521</v>
+        <v>0.026860481</v>
       </c>
       <c r="M16">
-        <v>0.996442184539865</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N16">
-        <v>0.996442184539865</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O16">
-        <v>0.9972891744863676</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P16">
-        <v>1.000713264080121</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q16">
-        <v>1.000713264080121</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R16">
-        <v>1.002848803850248</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S16">
-        <v>1.002848803850248</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T16">
-        <v>0.9980507923143896</v>
+        <v>1.391753247525</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9939436546397206</v>
+        <v>0.014617195</v>
       </c>
       <c r="D17">
-        <v>1.013760353741504</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="E17">
-        <v>0.9943624284904864</v>
+        <v>3.687674100000001</v>
       </c>
       <c r="F17">
-        <v>0.9939436546397206</v>
+        <v>0.069178954</v>
       </c>
       <c r="G17">
-        <v>1.018771227373578</v>
+        <v>0.055071072</v>
       </c>
       <c r="H17">
-        <v>1.000386502618325</v>
+        <v>3.2106912</v>
       </c>
       <c r="I17">
-        <v>0.9979580673623516</v>
+        <v>0.014617195</v>
       </c>
       <c r="J17">
-        <v>1.013760353741504</v>
+        <v>3.2106912</v>
       </c>
       <c r="K17">
-        <v>0.9939436546397206</v>
+        <v>0.014617195</v>
       </c>
       <c r="L17">
-        <v>0.9943624284904864</v>
+        <v>0.055071072</v>
       </c>
       <c r="M17">
-        <v>1.004061391115995</v>
+        <v>1.632881136</v>
       </c>
       <c r="N17">
-        <v>1.004061391115995</v>
+        <v>1.632881136</v>
       </c>
       <c r="O17">
-        <v>1.002836428283439</v>
+        <v>2.317812124</v>
       </c>
       <c r="P17">
-        <v>1.00068881229057</v>
+        <v>1.093459822333333</v>
       </c>
       <c r="Q17">
-        <v>1.00068881229057</v>
+        <v>1.093459822333333</v>
       </c>
       <c r="R17">
-        <v>0.9990025228778578</v>
+        <v>0.8237491655</v>
       </c>
       <c r="S17">
-        <v>0.9990025228778578</v>
+        <v>0.8237491655</v>
       </c>
       <c r="T17">
-        <v>1.003197039037661</v>
+        <v>1.172830128788333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.023821600789101</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="D18">
-        <v>1.00029812976866</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="E18">
-        <v>1.017632793097454</v>
+        <v>0.590349859337534</v>
       </c>
       <c r="F18">
-        <v>1.023821600789101</v>
+        <v>0.8175100732821918</v>
       </c>
       <c r="G18">
-        <v>0.9908083908859742</v>
+        <v>1.148466118401369</v>
       </c>
       <c r="H18">
-        <v>0.9865605827527559</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="I18">
-        <v>1.000624904189799</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="J18">
-        <v>1.00029812976866</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="K18">
-        <v>1.023821600789101</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="L18">
-        <v>1.017632793097454</v>
+        <v>1.148466118401369</v>
       </c>
       <c r="M18">
-        <v>1.008965461433057</v>
+        <v>1.571833906812329</v>
       </c>
       <c r="N18">
-        <v>1.008965461433057</v>
+        <v>1.571833906812329</v>
       </c>
       <c r="O18">
-        <v>1.001497168539623</v>
+        <v>1.244672557654064</v>
       </c>
       <c r="P18">
-        <v>1.013917507885072</v>
+        <v>1.347846189502274</v>
       </c>
       <c r="Q18">
-        <v>1.013917507885072</v>
+        <v>1.347846189502274</v>
       </c>
       <c r="R18">
-        <v>1.016393531111079</v>
+        <v>1.235852330847247</v>
       </c>
       <c r="S18">
-        <v>1.016393531111079</v>
+        <v>1.235852330847247</v>
       </c>
       <c r="T18">
-        <v>1.003291066913957</v>
+        <v>1.354820638145292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.061957687523567</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="D19">
-        <v>0.9189962377490069</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="E19">
-        <v>1.05412377517706</v>
+        <v>1.881666172631579</v>
       </c>
       <c r="F19">
-        <v>1.061957687523567</v>
+        <v>0.3592011805052631</v>
       </c>
       <c r="G19">
-        <v>0.901708431581948</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="H19">
-        <v>0.9767356723904453</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="I19">
-        <v>1.006987106208106</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="J19">
-        <v>0.9189962377490069</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="K19">
-        <v>1.061957687523567</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="L19">
-        <v>1.05412377517706</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="M19">
-        <v>0.9865600064630333</v>
+        <v>1.746360228144474</v>
       </c>
       <c r="N19">
-        <v>0.9865600064630333</v>
+        <v>1.746360228144474</v>
       </c>
       <c r="O19">
-        <v>0.9832852284388373</v>
+        <v>1.791462209640176</v>
       </c>
       <c r="P19">
-        <v>1.011692566816544</v>
+        <v>1.870205256284053</v>
       </c>
       <c r="Q19">
-        <v>1.011692566816544</v>
+        <v>1.870205256284053</v>
       </c>
       <c r="R19">
-        <v>1.0242588469933</v>
+        <v>1.932127770353842</v>
       </c>
       <c r="S19">
-        <v>1.0242588469933</v>
+        <v>1.932127770353842</v>
       </c>
       <c r="T19">
-        <v>0.9867514851050222</v>
+        <v>1.308853624881675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="D20">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="E20">
+        <v>0.5875345469944737</v>
+      </c>
+      <c r="F20">
+        <v>0.8011603088052631</v>
+      </c>
+      <c r="G20">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="H20">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="I20">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="J20">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="K20">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="L20">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="M20">
+        <v>1.610887203055263</v>
+      </c>
+      <c r="N20">
+        <v>1.610887203055263</v>
+      </c>
+      <c r="O20">
+        <v>1.269769651035</v>
+      </c>
+      <c r="P20">
+        <v>1.429189784383561</v>
+      </c>
+      <c r="Q20">
+        <v>1.429189784383561</v>
+      </c>
+      <c r="R20">
+        <v>1.33834107504771</v>
+      </c>
+      <c r="S20">
+        <v>1.33834107504771</v>
+      </c>
+      <c r="T20">
+        <v>1.374708630782526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="D21">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="E21">
+        <v>2.452011665041457</v>
+      </c>
+      <c r="F21">
+        <v>0.1665402680163802</v>
+      </c>
+      <c r="G21">
+        <v>0.209749771944535</v>
+      </c>
+      <c r="H21">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="I21">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="J21">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="K21">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="L21">
+        <v>0.209749771944535</v>
+      </c>
+      <c r="M21">
+        <v>2.584360505335524</v>
+      </c>
+      <c r="N21">
+        <v>2.584360505335524</v>
+      </c>
+      <c r="O21">
+        <v>2.540244225237501</v>
+      </c>
+      <c r="P21">
+        <v>1.737865538965274</v>
+      </c>
+      <c r="Q21">
+        <v>1.737865538965274</v>
+      </c>
+      <c r="R21">
+        <v>1.314618055780149</v>
+      </c>
+      <c r="S21">
+        <v>1.314618055780149</v>
+      </c>
+      <c r="T21">
+        <v>1.305457620071801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="D22">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="E22">
+        <v>1.558998625137756</v>
+      </c>
+      <c r="F22">
+        <v>0.9108226420960556</v>
+      </c>
+      <c r="G22">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="H22">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="I22">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="J22">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="K22">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="L22">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="M22">
+        <v>0.8360598126674048</v>
+      </c>
+      <c r="N22">
+        <v>0.8360598126674048</v>
+      </c>
+      <c r="O22">
+        <v>1.077039416824189</v>
+      </c>
+      <c r="P22">
+        <v>0.7682000746724519</v>
+      </c>
+      <c r="Q22">
+        <v>0.7682000746724519</v>
+      </c>
+      <c r="R22">
+        <v>0.7342702056749754</v>
+      </c>
+      <c r="S22">
+        <v>0.7342702056749754</v>
+      </c>
+      <c r="T22">
+        <v>0.8087205061412738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="D23">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="E23">
+        <v>1.02046059657031</v>
+      </c>
+      <c r="F23">
+        <v>1.147339775608283</v>
+      </c>
+      <c r="G23">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="H23">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="I23">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="J23">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="K23">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="L23">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="M23">
+        <v>0.836449840969179</v>
+      </c>
+      <c r="N23">
+        <v>0.836449840969179</v>
+      </c>
+      <c r="O23">
+        <v>0.8977867595028893</v>
+      </c>
+      <c r="P23">
+        <v>0.7155433624834081</v>
+      </c>
+      <c r="Q23">
+        <v>0.7155433624834083</v>
+      </c>
+      <c r="R23">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="S23">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="T23">
+        <v>0.8330586654882076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="D24">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="E24">
+        <v>1.034762081401286</v>
+      </c>
+      <c r="F24">
+        <v>0.792883474536294</v>
+      </c>
+      <c r="G24">
+        <v>0.4915436637177757</v>
+      </c>
+      <c r="H24">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="I24">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="J24">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="K24">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="L24">
+        <v>0.4915436637177757</v>
+      </c>
+      <c r="M24">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="N24">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="O24">
+        <v>1.079862813851559</v>
+      </c>
+      <c r="P24">
+        <v>1.252375017550995</v>
+      </c>
+      <c r="Q24">
+        <v>1.252375017550995</v>
+      </c>
+      <c r="R24">
+        <v>1.327355936288145</v>
+      </c>
+      <c r="S24">
+        <v>1.327355936288145</v>
+      </c>
+      <c r="T24">
+        <v>1.193245555479227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="D25">
+        <v>4.102775723979869</v>
+      </c>
+      <c r="E25">
+        <v>0.005498949930406612</v>
+      </c>
+      <c r="F25">
+        <v>1.250686388972495</v>
+      </c>
+      <c r="G25">
+        <v>1.832888417990372</v>
+      </c>
+      <c r="H25">
+        <v>-3.794840885238102E-05</v>
+      </c>
+      <c r="I25">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="J25">
+        <v>-3.794840885238102E-05</v>
+      </c>
+      <c r="K25">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="L25">
+        <v>1.832888417990372</v>
+      </c>
+      <c r="M25">
+        <v>0.9164252347907598</v>
+      </c>
+      <c r="N25">
+        <v>0.9164252347907598</v>
+      </c>
+      <c r="O25">
+        <v>0.6127831398373087</v>
+      </c>
+      <c r="P25">
+        <v>0.6486265856141504</v>
+      </c>
+      <c r="Q25">
+        <v>0.6486265856141504</v>
+      </c>
+      <c r="R25">
+        <v>0.5147272610258458</v>
+      </c>
+      <c r="S25">
+        <v>0.5147272610258458</v>
+      </c>
+      <c r="T25">
+        <v>1.217473469954204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="D26">
+        <v>0.1235815129862915</v>
+      </c>
+      <c r="E26">
+        <v>0.3225242475568116</v>
+      </c>
+      <c r="F26">
+        <v>1.543102081820894</v>
+      </c>
+      <c r="G26">
+        <v>1.369242230548035</v>
+      </c>
+      <c r="H26">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="I26">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="J26">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="K26">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="L26">
+        <v>1.369242230548035</v>
+      </c>
+      <c r="M26">
+        <v>0.6918431818808969</v>
+      </c>
+      <c r="N26">
+        <v>0.6918431818808969</v>
+      </c>
+      <c r="O26">
+        <v>0.5687368704395351</v>
+      </c>
+      <c r="P26">
+        <v>0.9566341527852106</v>
+      </c>
+      <c r="Q26">
+        <v>0.9566341527852106</v>
+      </c>
+      <c r="R26">
+        <v>1.089029638237367</v>
+      </c>
+      <c r="S26">
+        <v>1.089029638237367</v>
+      </c>
+      <c r="T26">
+        <v>0.8098517167866048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="D27">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="E27">
+        <v>1.049442799052001</v>
+      </c>
+      <c r="F27">
+        <v>0.9209271372953872</v>
+      </c>
+      <c r="G27">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="H27">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="I27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="J27">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="K27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="L27">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="M27">
+        <v>0.8302607267774684</v>
+      </c>
+      <c r="N27">
+        <v>0.8302607267774684</v>
+      </c>
+      <c r="O27">
+        <v>0.9033214175356461</v>
+      </c>
+      <c r="P27">
+        <v>0.89959716055212</v>
+      </c>
+      <c r="Q27">
+        <v>0.89959716055212</v>
+      </c>
+      <c r="R27">
+        <v>0.9342653774394458</v>
+      </c>
+      <c r="S27">
+        <v>0.9342653774394458</v>
+      </c>
+      <c r="T27">
+        <v>0.9912892068106846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="D28">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="E28">
+        <v>0.8299243044582251</v>
+      </c>
+      <c r="F28">
+        <v>0.8919353948055667</v>
+      </c>
+      <c r="G28">
+        <v>1.142809982904686</v>
+      </c>
+      <c r="H28">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="I28">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="J28">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="K28">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="L28">
+        <v>1.142809982904686</v>
+      </c>
+      <c r="M28">
+        <v>1.158792919867369</v>
+      </c>
+      <c r="N28">
+        <v>1.158792919867369</v>
+      </c>
+      <c r="O28">
+        <v>1.049170048064321</v>
+      </c>
+      <c r="P28">
+        <v>1.09457497012065</v>
+      </c>
+      <c r="Q28">
+        <v>1.09457497012065</v>
+      </c>
+      <c r="R28">
+        <v>1.062465995247291</v>
+      </c>
+      <c r="S28">
+        <v>1.062465995247291</v>
+      </c>
+      <c r="T28">
+        <v>1.074809729770183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.292672764417832</v>
+      </c>
+      <c r="D29">
+        <v>2.424300463459785</v>
+      </c>
+      <c r="E29">
+        <v>0.9673611306372097</v>
+      </c>
+      <c r="F29">
+        <v>0.5665929742646039</v>
+      </c>
+      <c r="G29">
+        <v>0.6120453984500327</v>
+      </c>
+      <c r="H29">
+        <v>2.28730743657002</v>
+      </c>
+      <c r="I29">
+        <v>1.292672764417832</v>
+      </c>
+      <c r="J29">
+        <v>2.28730743657002</v>
+      </c>
+      <c r="K29">
+        <v>1.292672764417832</v>
+      </c>
+      <c r="L29">
+        <v>0.6120453984500327</v>
+      </c>
+      <c r="M29">
+        <v>1.449676417510027</v>
+      </c>
+      <c r="N29">
+        <v>1.449676417510027</v>
+      </c>
+      <c r="O29">
+        <v>1.288904655219088</v>
+      </c>
+      <c r="P29">
+        <v>1.397341866479295</v>
+      </c>
+      <c r="Q29">
+        <v>1.397341866479295</v>
+      </c>
+      <c r="R29">
+        <v>1.371174590963929</v>
+      </c>
+      <c r="S29">
+        <v>1.371174590963929</v>
+      </c>
+      <c r="T29">
+        <v>1.358380027966581</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.447026928272622</v>
+        <v>1.529053262247947</v>
       </c>
       <c r="D4">
-        <v>0.8746729245891567</v>
+        <v>0.9066785864273847</v>
       </c>
       <c r="E4">
-        <v>0.9208570206899671</v>
+        <v>0.8780126944440698</v>
       </c>
       <c r="F4">
-        <v>0.9961661514462269</v>
+        <v>1.008586698694916</v>
       </c>
       <c r="G4">
-        <v>0.8958434101527728</v>
+        <v>0.9154453387408147</v>
       </c>
       <c r="H4">
-        <v>0.9013365646971886</v>
+        <v>0.7877817715820432</v>
       </c>
       <c r="I4">
-        <v>1.447026928272622</v>
+        <v>1.529053262247947</v>
       </c>
       <c r="J4">
-        <v>0.9013365646971886</v>
+        <v>0.7877817715820432</v>
       </c>
       <c r="K4">
-        <v>1.447026928272622</v>
+        <v>1.529053262247947</v>
       </c>
       <c r="L4">
-        <v>0.8958434101527728</v>
+        <v>0.9154453387408147</v>
       </c>
       <c r="M4">
-        <v>0.8985899874249808</v>
+        <v>0.851613555161429</v>
       </c>
       <c r="N4">
-        <v>0.8985899874249808</v>
+        <v>0.851613555161429</v>
       </c>
       <c r="O4">
-        <v>0.9060123318466428</v>
+        <v>0.8604132682556426</v>
       </c>
       <c r="P4">
-        <v>1.081402301040861</v>
+        <v>1.077426790856935</v>
       </c>
       <c r="Q4">
-        <v>1.081402301040861</v>
+        <v>1.077426790856935</v>
       </c>
       <c r="R4">
-        <v>1.172808457848801</v>
+        <v>1.190333408704688</v>
       </c>
       <c r="S4">
-        <v>1.172808457848801</v>
+        <v>1.190333408704688</v>
       </c>
       <c r="T4">
-        <v>1.005983833307989</v>
+        <v>1.004259725356196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.65199084941161</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="D5">
-        <v>0.9406782913569334</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="E5">
-        <v>0.8535656351248198</v>
+        <v>0.6103179468612348</v>
       </c>
       <c r="F5">
-        <v>0.9871160619869618</v>
+        <v>0.8296006807712534</v>
       </c>
       <c r="G5">
-        <v>0.8972175690883274</v>
+        <v>1.216814230196834</v>
       </c>
       <c r="H5">
-        <v>0.8498709386006038</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="I5">
-        <v>1.65199084941161</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="J5">
-        <v>0.8498709386006038</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="K5">
-        <v>1.65199084941161</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="L5">
-        <v>0.8972175690883274</v>
+        <v>1.216814230196834</v>
       </c>
       <c r="M5">
-        <v>0.8735442538444655</v>
+        <v>1.590670688692333</v>
       </c>
       <c r="N5">
-        <v>0.8735442538444655</v>
+        <v>1.590670688692333</v>
       </c>
       <c r="O5">
-        <v>0.8668847142712502</v>
+        <v>1.2638864414153</v>
       </c>
       <c r="P5">
-        <v>1.133026452366847</v>
+        <v>1.25903502051963</v>
       </c>
       <c r="Q5">
-        <v>1.133026452366847</v>
+        <v>1.25903502051963</v>
       </c>
       <c r="R5">
-        <v>1.262767551628038</v>
+        <v>1.093217186433278</v>
       </c>
       <c r="S5">
-        <v>1.262767551628038</v>
+        <v>1.093217186433278</v>
       </c>
       <c r="T5">
-        <v>1.030073224261543</v>
+        <v>1.342722252251943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.582168773820876</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="D6">
-        <v>0.451020274558218</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="E6">
-        <v>0.4725121917396428</v>
+        <v>0.9208570206899671</v>
       </c>
       <c r="F6">
-        <v>0.8044454037574047</v>
+        <v>0.9961661514462269</v>
       </c>
       <c r="G6">
-        <v>0.4691449368573655</v>
+        <v>0.8958434101527728</v>
       </c>
       <c r="H6">
-        <v>0.4147466676310699</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="I6">
-        <v>4.582168773820876</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="J6">
-        <v>0.4147466676310699</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="K6">
-        <v>4.582168773820876</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="L6">
-        <v>0.4691449368573655</v>
+        <v>0.8958434101527728</v>
       </c>
       <c r="M6">
-        <v>0.4419458022442176</v>
+        <v>0.8985899874249808</v>
       </c>
       <c r="N6">
-        <v>0.4419458022442176</v>
+        <v>0.8985899874249808</v>
       </c>
       <c r="O6">
-        <v>0.4521345987426927</v>
+        <v>0.9060123318466428</v>
       </c>
       <c r="P6">
-        <v>1.822020126103104</v>
+        <v>1.081402301040861</v>
       </c>
       <c r="Q6">
-        <v>1.822020126103104</v>
+        <v>1.081402301040861</v>
       </c>
       <c r="R6">
-        <v>2.512057288032547</v>
+        <v>1.172808457848801</v>
       </c>
       <c r="S6">
-        <v>2.512057288032547</v>
+        <v>1.172808457848801</v>
       </c>
       <c r="T6">
-        <v>1.19900637472743</v>
+        <v>1.005983833307989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9956638099466831</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="D7">
-        <v>1.08326972394978</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="E7">
-        <v>0.9803386958162303</v>
+        <v>0.8535656351248198</v>
       </c>
       <c r="F7">
-        <v>0.992039906837999</v>
+        <v>0.9871160619869618</v>
       </c>
       <c r="G7">
-        <v>1.004972558068685</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="H7">
-        <v>1.037160784011026</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="I7">
-        <v>0.9956638099466831</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="J7">
-        <v>1.037160784011026</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="K7">
-        <v>0.9956638099466831</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="L7">
-        <v>1.004972558068685</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="M7">
-        <v>1.021066671039856</v>
+        <v>0.8735442538444655</v>
       </c>
       <c r="N7">
-        <v>1.021066671039856</v>
+        <v>0.8735442538444655</v>
       </c>
       <c r="O7">
-        <v>1.007490679298647</v>
+        <v>0.8668847142712502</v>
       </c>
       <c r="P7">
-        <v>1.012599050675465</v>
+        <v>1.133026452366847</v>
       </c>
       <c r="Q7">
-        <v>1.012599050675465</v>
+        <v>1.133026452366847</v>
       </c>
       <c r="R7">
-        <v>1.008365240493269</v>
+        <v>1.262767551628038</v>
       </c>
       <c r="S7">
-        <v>1.008365240493269</v>
+        <v>1.262767551628038</v>
       </c>
       <c r="T7">
-        <v>1.015574246438401</v>
+        <v>1.030073224261543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9939436546397209</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="D8">
-        <v>1.018771227373578</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="E8">
-        <v>1.000386502618325</v>
+        <v>0.4725121917396428</v>
       </c>
       <c r="F8">
-        <v>0.9979580673623522</v>
+        <v>0.8044454037574047</v>
       </c>
       <c r="G8">
-        <v>0.9943624284904866</v>
+        <v>0.4691449368573655</v>
       </c>
       <c r="H8">
-        <v>1.013760353741505</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="I8">
-        <v>0.9939436546397209</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="J8">
-        <v>1.013760353741505</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="K8">
-        <v>0.9939436546397209</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="L8">
-        <v>0.9943624284904866</v>
+        <v>0.4691449368573655</v>
       </c>
       <c r="M8">
-        <v>1.004061391115996</v>
+        <v>0.4419458022442176</v>
       </c>
       <c r="N8">
-        <v>1.004061391115996</v>
+        <v>0.4419458022442176</v>
       </c>
       <c r="O8">
-        <v>1.002836428283439</v>
+        <v>0.4521345987426927</v>
       </c>
       <c r="P8">
-        <v>1.000688812290571</v>
+        <v>1.822020126103104</v>
       </c>
       <c r="Q8">
-        <v>1.000688812290571</v>
+        <v>1.822020126103104</v>
       </c>
       <c r="R8">
-        <v>0.9990025228778583</v>
+        <v>2.512057288032547</v>
       </c>
       <c r="S8">
-        <v>0.9990025228778583</v>
+        <v>2.512057288032547</v>
       </c>
       <c r="T8">
-        <v>1.003197039037661</v>
+        <v>1.19900637472743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005414003669555</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="D9">
-        <v>1.141933910465841</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="E9">
-        <v>0.9620644023438698</v>
+        <v>0.9803386958162303</v>
       </c>
       <c r="F9">
-        <v>0.9845458942831455</v>
+        <v>0.992039906837999</v>
       </c>
       <c r="G9">
-        <v>1.012508622009755</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="H9">
-        <v>1.067304768508322</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="I9">
-        <v>1.005414003669555</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="J9">
-        <v>1.067304768508322</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="K9">
-        <v>1.005414003669555</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="L9">
-        <v>1.012508622009755</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="M9">
-        <v>1.039906695259039</v>
+        <v>1.021066671039856</v>
       </c>
       <c r="N9">
-        <v>1.039906695259039</v>
+        <v>1.021066671039856</v>
       </c>
       <c r="O9">
-        <v>1.013959264287316</v>
+        <v>1.007490679298647</v>
       </c>
       <c r="P9">
-        <v>1.028409131395877</v>
+        <v>1.012599050675465</v>
       </c>
       <c r="Q9">
-        <v>1.028409131395877</v>
+        <v>1.012599050675465</v>
       </c>
       <c r="R9">
-        <v>1.022660349464297</v>
+        <v>1.008365240493269</v>
       </c>
       <c r="S9">
-        <v>1.022660349464297</v>
+        <v>1.008365240493269</v>
       </c>
       <c r="T9">
-        <v>1.028961933546748</v>
+        <v>1.015574246438401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.698946139500206</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="D10">
-        <v>0.4323547080011271</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="E10">
-        <v>0.4598388941808733</v>
+        <v>1.000386502618325</v>
       </c>
       <c r="F10">
-        <v>0.7947788762810692</v>
+        <v>0.9979580673623522</v>
       </c>
       <c r="G10">
-        <v>0.4344101240797893</v>
+        <v>0.9943624284904866</v>
       </c>
       <c r="H10">
-        <v>0.4442490697387313</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="I10">
-        <v>4.698946139500206</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="J10">
-        <v>0.4442490697387313</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="K10">
-        <v>4.698946139500206</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="L10">
-        <v>0.4344101240797893</v>
+        <v>0.9943624284904866</v>
       </c>
       <c r="M10">
-        <v>0.4393295969092603</v>
+        <v>1.004061391115996</v>
       </c>
       <c r="N10">
-        <v>0.4393295969092603</v>
+        <v>1.004061391115996</v>
       </c>
       <c r="O10">
-        <v>0.4461660293331313</v>
+        <v>1.002836428283439</v>
       </c>
       <c r="P10">
-        <v>1.859201777772909</v>
+        <v>1.000688812290571</v>
       </c>
       <c r="Q10">
-        <v>1.859201777772909</v>
+        <v>1.000688812290571</v>
       </c>
       <c r="R10">
-        <v>2.569137868204733</v>
+        <v>0.9990025228778583</v>
       </c>
       <c r="S10">
-        <v>2.569137868204733</v>
+        <v>0.9990025228778583</v>
       </c>
       <c r="T10">
-        <v>1.210762968630299</v>
+        <v>1.003197039037661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.547120297763512</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="D11">
-        <v>1.202440130520973</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="E11">
-        <v>0.5870353601824573</v>
+        <v>0.9620644023438698</v>
       </c>
       <c r="F11">
-        <v>1.16513333233508</v>
+        <v>0.9845458942831455</v>
       </c>
       <c r="G11">
-        <v>1.073644975028989</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="H11">
-        <v>0.3449411900293977</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="I11">
-        <v>1.547120297763512</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="J11">
-        <v>0.3449411900293977</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="K11">
-        <v>1.547120297763512</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="L11">
-        <v>1.073644975028989</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="M11">
-        <v>0.7092930825291934</v>
+        <v>1.039906695259039</v>
       </c>
       <c r="N11">
-        <v>0.7092930825291934</v>
+        <v>1.039906695259039</v>
       </c>
       <c r="O11">
-        <v>0.6685405084136148</v>
+        <v>1.013959264287316</v>
       </c>
       <c r="P11">
-        <v>0.988568820940633</v>
+        <v>1.028409131395877</v>
       </c>
       <c r="Q11">
-        <v>0.988568820940633</v>
+        <v>1.028409131395877</v>
       </c>
       <c r="R11">
-        <v>1.128206690146353</v>
+        <v>1.022660349464297</v>
       </c>
       <c r="S11">
-        <v>1.128206690146353</v>
+        <v>1.022660349464297</v>
       </c>
       <c r="T11">
-        <v>0.9867192143100684</v>
+        <v>1.028961933546748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.984432204699188</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="D12">
-        <v>0.8325688200006874</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="E12">
-        <v>0.8256153012275429</v>
+        <v>0.4598388941808733</v>
       </c>
       <c r="F12">
-        <v>0.9695107250867364</v>
+        <v>0.7947788762810692</v>
       </c>
       <c r="G12">
-        <v>0.8139834003677884</v>
+        <v>0.4344101240797893</v>
       </c>
       <c r="H12">
-        <v>0.8254987582548408</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="I12">
-        <v>1.984432204699188</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="J12">
-        <v>0.8254987582548408</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="K12">
-        <v>1.984432204699188</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="L12">
-        <v>0.8139834003677884</v>
+        <v>0.4344101240797893</v>
       </c>
       <c r="M12">
-        <v>0.8197410793113146</v>
+        <v>0.4393295969092603</v>
       </c>
       <c r="N12">
-        <v>0.8197410793113146</v>
+        <v>0.4393295969092603</v>
       </c>
       <c r="O12">
-        <v>0.8216991532833907</v>
+        <v>0.4461660293331313</v>
       </c>
       <c r="P12">
-        <v>1.207971454440606</v>
+        <v>1.859201777772909</v>
       </c>
       <c r="Q12">
-        <v>1.207971454440606</v>
+        <v>1.859201777772909</v>
       </c>
       <c r="R12">
-        <v>1.402086642005251</v>
+        <v>2.569137868204733</v>
       </c>
       <c r="S12">
-        <v>1.402086642005251</v>
+        <v>2.569137868204733</v>
       </c>
       <c r="T12">
-        <v>1.041934868272797</v>
+        <v>1.210762968630299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.021427464801884</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="D13">
-        <v>0.9987404704898265</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="E13">
-        <v>1.068792979593303</v>
+        <v>0.5870353601824573</v>
       </c>
       <c r="F13">
-        <v>0.9483144583922445</v>
+        <v>1.16513333233508</v>
       </c>
       <c r="G13">
-        <v>0.9299353547439732</v>
+        <v>1.073644975028989</v>
       </c>
       <c r="H13">
-        <v>1.282535801387146</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="I13">
-        <v>1.021427464801884</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="J13">
-        <v>1.282535801387146</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="K13">
-        <v>1.021427464801884</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="L13">
-        <v>0.9299353547439732</v>
+        <v>1.073644975028989</v>
       </c>
       <c r="M13">
-        <v>1.106235578065559</v>
+        <v>0.7092930825291934</v>
       </c>
       <c r="N13">
-        <v>1.106235578065559</v>
+        <v>0.7092930825291934</v>
       </c>
       <c r="O13">
-        <v>1.093754711908141</v>
+        <v>0.6685405084136148</v>
       </c>
       <c r="P13">
-        <v>1.077966206977668</v>
+        <v>0.988568820940633</v>
       </c>
       <c r="Q13">
-        <v>1.077966206977668</v>
+        <v>0.988568820940633</v>
       </c>
       <c r="R13">
-        <v>1.063831521433722</v>
+        <v>1.128206690146353</v>
       </c>
       <c r="S13">
-        <v>1.063831521433722</v>
+        <v>1.128206690146353</v>
       </c>
       <c r="T13">
-        <v>1.041624421568063</v>
+        <v>0.9867192143100684</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.654601099999995</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="D14">
-        <v>0.007481255500000003</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="E14">
-        <v>0.05715137000000005</v>
+        <v>0.8256153012275429</v>
       </c>
       <c r="F14">
-        <v>0.6037766099999995</v>
+        <v>0.9695107250867364</v>
       </c>
       <c r="G14">
-        <v>0.02686048099999998</v>
+        <v>0.8139834003677884</v>
       </c>
       <c r="H14">
-        <v>0.0006486686400000005</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="I14">
-        <v>7.654601099999995</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="J14">
-        <v>0.0006486686400000005</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="K14">
-        <v>7.654601099999995</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="L14">
-        <v>0.02686048099999998</v>
+        <v>0.8139834003677884</v>
       </c>
       <c r="M14">
-        <v>0.01375457481999999</v>
+        <v>0.8197410793113146</v>
       </c>
       <c r="N14">
-        <v>0.01375457481999999</v>
+        <v>0.8197410793113146</v>
       </c>
       <c r="O14">
-        <v>0.02822017321333334</v>
+        <v>0.8216991532833907</v>
       </c>
       <c r="P14">
-        <v>2.560703416546665</v>
+        <v>1.207971454440606</v>
       </c>
       <c r="Q14">
-        <v>2.560703416546665</v>
+        <v>1.207971454440606</v>
       </c>
       <c r="R14">
-        <v>3.834177837409998</v>
+        <v>1.402086642005251</v>
       </c>
       <c r="S14">
-        <v>3.834177837409998</v>
+        <v>1.402086642005251</v>
       </c>
       <c r="T14">
-        <v>1.391753247523332</v>
+        <v>1.041934868272797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0006486686500000001</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="D15">
-        <v>-0.0032556798</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="E15">
-        <v>1.4427831</v>
+        <v>1.068792979593303</v>
       </c>
       <c r="F15">
-        <v>0.0023948996</v>
+        <v>0.9483144583922445</v>
       </c>
       <c r="G15">
-        <v>0.0040031707</v>
+        <v>0.9299353547439732</v>
       </c>
       <c r="H15">
-        <v>15.308083</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="I15">
-        <v>0.0006486686500000001</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="J15">
-        <v>15.308083</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="K15">
-        <v>0.0006486686500000001</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="L15">
-        <v>0.0040031707</v>
+        <v>0.9299353547439732</v>
       </c>
       <c r="M15">
-        <v>7.65604308535</v>
+        <v>1.106235578065559</v>
       </c>
       <c r="N15">
-        <v>7.65604308535</v>
+        <v>1.106235578065559</v>
       </c>
       <c r="O15">
-        <v>5.584956423566667</v>
+        <v>1.093754711908141</v>
       </c>
       <c r="P15">
-        <v>5.10424494645</v>
+        <v>1.077966206977668</v>
       </c>
       <c r="Q15">
-        <v>5.10424494645</v>
+        <v>1.077966206977668</v>
       </c>
       <c r="R15">
-        <v>3.828345877</v>
+        <v>1.063831521433722</v>
       </c>
       <c r="S15">
-        <v>3.828345877</v>
+        <v>1.063831521433722</v>
       </c>
       <c r="T15">
-        <v>2.792442859858333</v>
+        <v>1.041624421568063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.6546011</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="D16">
-        <v>0.007481255500000001</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="E16">
-        <v>0.05715137000000001</v>
+        <v>0.05715137000000005</v>
       </c>
       <c r="F16">
-        <v>0.60377661</v>
+        <v>0.6037766099999995</v>
       </c>
       <c r="G16">
-        <v>0.026860481</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="H16">
-        <v>0.0006486686500000001</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="I16">
-        <v>7.6546011</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="J16">
-        <v>0.0006486686500000001</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="K16">
-        <v>7.6546011</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="L16">
-        <v>0.026860481</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="M16">
-        <v>0.013754574825</v>
+        <v>0.01375457481999999</v>
       </c>
       <c r="N16">
-        <v>0.013754574825</v>
+        <v>0.01375457481999999</v>
       </c>
       <c r="O16">
-        <v>0.02822017321666667</v>
+        <v>0.02822017321333334</v>
       </c>
       <c r="P16">
-        <v>2.56070341655</v>
+        <v>2.560703416546665</v>
       </c>
       <c r="Q16">
-        <v>2.56070341655</v>
+        <v>2.560703416546665</v>
       </c>
       <c r="R16">
-        <v>3.8341778374125</v>
+        <v>3.834177837409998</v>
       </c>
       <c r="S16">
-        <v>3.8341778374125</v>
+        <v>3.834177837409998</v>
       </c>
       <c r="T16">
-        <v>1.391753247525</v>
+        <v>1.391753247523332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.014617195</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="D17">
-        <v>-0.00025174827</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="E17">
-        <v>3.687674100000001</v>
+        <v>1.4427831</v>
       </c>
       <c r="F17">
-        <v>0.069178954</v>
+        <v>0.0023948996</v>
       </c>
       <c r="G17">
-        <v>0.055071072</v>
+        <v>0.0040031707</v>
       </c>
       <c r="H17">
-        <v>3.2106912</v>
+        <v>15.308083</v>
       </c>
       <c r="I17">
-        <v>0.014617195</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J17">
-        <v>3.2106912</v>
+        <v>15.308083</v>
       </c>
       <c r="K17">
-        <v>0.014617195</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L17">
-        <v>0.055071072</v>
+        <v>0.0040031707</v>
       </c>
       <c r="M17">
-        <v>1.632881136</v>
+        <v>7.65604308535</v>
       </c>
       <c r="N17">
-        <v>1.632881136</v>
+        <v>7.65604308535</v>
       </c>
       <c r="O17">
-        <v>2.317812124</v>
+        <v>5.584956423566667</v>
       </c>
       <c r="P17">
-        <v>1.093459822333333</v>
+        <v>5.10424494645</v>
       </c>
       <c r="Q17">
-        <v>1.093459822333333</v>
+        <v>5.10424494645</v>
       </c>
       <c r="R17">
-        <v>0.8237491655</v>
+        <v>3.828345877</v>
       </c>
       <c r="S17">
-        <v>0.8237491655</v>
+        <v>3.828345877</v>
       </c>
       <c r="T17">
-        <v>1.172830128788333</v>
+        <v>2.792442859858333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8998707548821646</v>
+        <v>7.6546011</v>
       </c>
       <c r="D18">
-        <v>2.677525327745206</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E18">
-        <v>0.590349859337534</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="F18">
-        <v>0.8175100732821918</v>
+        <v>0.60377661</v>
       </c>
       <c r="G18">
-        <v>1.148466118401369</v>
+        <v>0.026860481</v>
       </c>
       <c r="H18">
-        <v>1.995201695223288</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I18">
-        <v>0.8998707548821646</v>
+        <v>7.6546011</v>
       </c>
       <c r="J18">
-        <v>1.995201695223288</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K18">
-        <v>0.8998707548821646</v>
+        <v>7.6546011</v>
       </c>
       <c r="L18">
-        <v>1.148466118401369</v>
+        <v>0.026860481</v>
       </c>
       <c r="M18">
-        <v>1.571833906812329</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N18">
-        <v>1.571833906812329</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O18">
-        <v>1.244672557654064</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P18">
-        <v>1.347846189502274</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q18">
-        <v>1.347846189502274</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R18">
-        <v>1.235852330847247</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S18">
-        <v>1.235852330847247</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T18">
-        <v>1.354820638145292</v>
+        <v>1.391753247525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.11789531256321</v>
+        <v>0.014617195</v>
       </c>
       <c r="D19">
-        <v>0.001638627301052632</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="E19">
-        <v>1.881666172631579</v>
+        <v>3.687674100000001</v>
       </c>
       <c r="F19">
-        <v>0.3592011805052631</v>
+        <v>0.069178954</v>
       </c>
       <c r="G19">
-        <v>0.06229593718947368</v>
+        <v>0.055071072</v>
       </c>
       <c r="H19">
-        <v>3.430424519099474</v>
+        <v>3.2106912</v>
       </c>
       <c r="I19">
-        <v>2.11789531256321</v>
+        <v>0.014617195</v>
       </c>
       <c r="J19">
-        <v>3.430424519099474</v>
+        <v>3.2106912</v>
       </c>
       <c r="K19">
-        <v>2.11789531256321</v>
+        <v>0.014617195</v>
       </c>
       <c r="L19">
-        <v>0.06229593718947368</v>
+        <v>0.055071072</v>
       </c>
       <c r="M19">
-        <v>1.746360228144474</v>
+        <v>1.632881136</v>
       </c>
       <c r="N19">
-        <v>1.746360228144474</v>
+        <v>1.632881136</v>
       </c>
       <c r="O19">
-        <v>1.791462209640176</v>
+        <v>2.317812124</v>
       </c>
       <c r="P19">
-        <v>1.870205256284053</v>
+        <v>1.093459822333333</v>
       </c>
       <c r="Q19">
-        <v>1.870205256284053</v>
+        <v>1.093459822333333</v>
       </c>
       <c r="R19">
-        <v>1.932127770353842</v>
+        <v>0.8237491655</v>
       </c>
       <c r="S19">
-        <v>1.932127770353842</v>
+        <v>0.8237491655</v>
       </c>
       <c r="T19">
-        <v>1.308853624881675</v>
+        <v>1.172830128788333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.065794947040158</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="D20">
-        <v>2.571987575744737</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="E20">
-        <v>0.5875345469944737</v>
+        <v>0.590349859337534</v>
       </c>
       <c r="F20">
-        <v>0.8011603088052631</v>
+        <v>0.8175100732821918</v>
       </c>
       <c r="G20">
-        <v>1.103891457578947</v>
+        <v>1.148466118401369</v>
       </c>
       <c r="H20">
-        <v>2.117882948531579</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="I20">
-        <v>1.065794947040158</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="J20">
-        <v>2.117882948531579</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="K20">
-        <v>1.065794947040158</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="L20">
-        <v>1.103891457578947</v>
+        <v>1.148466118401369</v>
       </c>
       <c r="M20">
-        <v>1.610887203055263</v>
+        <v>1.571833906812329</v>
       </c>
       <c r="N20">
-        <v>1.610887203055263</v>
+        <v>1.571833906812329</v>
       </c>
       <c r="O20">
-        <v>1.269769651035</v>
+        <v>1.244672557654064</v>
       </c>
       <c r="P20">
-        <v>1.429189784383561</v>
+        <v>1.347846189502274</v>
       </c>
       <c r="Q20">
-        <v>1.429189784383561</v>
+        <v>1.347846189502274</v>
       </c>
       <c r="R20">
-        <v>1.33834107504771</v>
+        <v>1.235852330847247</v>
       </c>
       <c r="S20">
-        <v>1.33834107504771</v>
+        <v>1.235852330847247</v>
       </c>
       <c r="T20">
-        <v>1.374708630782526</v>
+        <v>1.354820638145292</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.04487560622477388</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="D21">
-        <v>0.000597170477148993</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="E21">
-        <v>2.452011665041457</v>
+        <v>1.881666172631579</v>
       </c>
       <c r="F21">
-        <v>0.1665402680163802</v>
+        <v>0.3592011805052631</v>
       </c>
       <c r="G21">
-        <v>0.209749771944535</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="H21">
-        <v>4.958971238726512</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="I21">
-        <v>0.04487560622477388</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="J21">
-        <v>4.958971238726512</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="K21">
-        <v>0.04487560622477388</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="L21">
-        <v>0.209749771944535</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="M21">
-        <v>2.584360505335524</v>
+        <v>1.746360228144474</v>
       </c>
       <c r="N21">
-        <v>2.584360505335524</v>
+        <v>1.746360228144474</v>
       </c>
       <c r="O21">
-        <v>2.540244225237501</v>
+        <v>1.791462209640176</v>
       </c>
       <c r="P21">
-        <v>1.737865538965274</v>
+        <v>1.870205256284053</v>
       </c>
       <c r="Q21">
-        <v>1.737865538965274</v>
+        <v>1.870205256284053</v>
       </c>
       <c r="R21">
-        <v>1.314618055780149</v>
+        <v>1.932127770353842</v>
       </c>
       <c r="S21">
-        <v>1.314618055780149</v>
+        <v>1.932127770353842</v>
       </c>
       <c r="T21">
-        <v>1.305457620071801</v>
+        <v>1.308853624881675</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6324805986825459</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="D22">
-        <v>0.07790154559647507</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="E22">
-        <v>1.558998625137756</v>
+        <v>0.5875345469944737</v>
       </c>
       <c r="F22">
-        <v>0.9108226420960556</v>
+        <v>0.8011603088052631</v>
       </c>
       <c r="G22">
-        <v>1.040952454476435</v>
+        <v>1.103891457578947</v>
       </c>
       <c r="H22">
-        <v>0.6311671708583744</v>
+        <v>2.117882948531579</v>
       </c>
       <c r="I22">
-        <v>0.6324805986825459</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="J22">
-        <v>0.6311671708583744</v>
+        <v>2.117882948531579</v>
       </c>
       <c r="K22">
-        <v>0.6324805986825459</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="L22">
-        <v>1.040952454476435</v>
+        <v>1.103891457578947</v>
       </c>
       <c r="M22">
-        <v>0.8360598126674048</v>
+        <v>1.610887203055263</v>
       </c>
       <c r="N22">
-        <v>0.8360598126674048</v>
+        <v>1.610887203055263</v>
       </c>
       <c r="O22">
-        <v>1.077039416824189</v>
+        <v>1.269769651035</v>
       </c>
       <c r="P22">
-        <v>0.7682000746724519</v>
+        <v>1.429189784383561</v>
       </c>
       <c r="Q22">
-        <v>0.7682000746724519</v>
+        <v>1.429189784383561</v>
       </c>
       <c r="R22">
-        <v>0.7342702056749754</v>
+        <v>1.33834107504771</v>
       </c>
       <c r="S22">
-        <v>0.7342702056749754</v>
+        <v>1.33834107504771</v>
       </c>
       <c r="T22">
-        <v>0.8087205061412738</v>
+        <v>1.374708630782526</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4737304055118667</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="D23">
-        <v>0.6839215333004276</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="E23">
-        <v>1.02046059657031</v>
+        <v>2.452011665041457</v>
       </c>
       <c r="F23">
-        <v>1.147339775608283</v>
+        <v>0.1665402680163802</v>
       </c>
       <c r="G23">
-        <v>1.351068282767972</v>
+        <v>0.209749771944535</v>
       </c>
       <c r="H23">
-        <v>0.3218313991703864</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="I23">
-        <v>0.4737304055118667</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="J23">
-        <v>0.3218313991703864</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="K23">
-        <v>0.4737304055118667</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="L23">
-        <v>1.351068282767972</v>
+        <v>0.209749771944535</v>
       </c>
       <c r="M23">
-        <v>0.836449840969179</v>
+        <v>2.584360505335524</v>
       </c>
       <c r="N23">
-        <v>0.836449840969179</v>
+        <v>2.584360505335524</v>
       </c>
       <c r="O23">
-        <v>0.8977867595028893</v>
+        <v>2.540244225237501</v>
       </c>
       <c r="P23">
-        <v>0.7155433624834081</v>
+        <v>1.737865538965274</v>
       </c>
       <c r="Q23">
-        <v>0.7155433624834083</v>
+        <v>1.737865538965274</v>
       </c>
       <c r="R23">
-        <v>0.6550901232405228</v>
+        <v>1.314618055780149</v>
       </c>
       <c r="S23">
-        <v>0.6550901232405228</v>
+        <v>1.314618055780149</v>
       </c>
       <c r="T23">
-        <v>0.8330586654882076</v>
+        <v>1.305457620071801</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.552298692499595</v>
+        <v>0.6324805986825459</v>
       </c>
       <c r="D24">
-        <v>1.5747027242848</v>
+        <v>0.07790154559647507</v>
       </c>
       <c r="E24">
-        <v>1.034762081401286</v>
+        <v>1.558998625137756</v>
       </c>
       <c r="F24">
-        <v>0.792883474536294</v>
+        <v>0.9108226420960556</v>
       </c>
       <c r="G24">
-        <v>0.4915436637177757</v>
+        <v>1.040952454476435</v>
       </c>
       <c r="H24">
-        <v>1.713282696435615</v>
+        <v>0.6311671708583744</v>
       </c>
       <c r="I24">
-        <v>1.552298692499595</v>
+        <v>0.6324805986825459</v>
       </c>
       <c r="J24">
-        <v>1.713282696435615</v>
+        <v>0.6311671708583744</v>
       </c>
       <c r="K24">
-        <v>1.552298692499595</v>
+        <v>0.6324805986825459</v>
       </c>
       <c r="L24">
-        <v>0.4915436637177757</v>
+        <v>1.040952454476435</v>
       </c>
       <c r="M24">
-        <v>1.102413180076695</v>
+        <v>0.8360598126674048</v>
       </c>
       <c r="N24">
-        <v>1.102413180076695</v>
+        <v>0.8360598126674048</v>
       </c>
       <c r="O24">
-        <v>1.079862813851559</v>
+        <v>1.077039416824189</v>
       </c>
       <c r="P24">
-        <v>1.252375017550995</v>
+        <v>0.7682000746724519</v>
       </c>
       <c r="Q24">
-        <v>1.252375017550995</v>
+        <v>0.7682000746724519</v>
       </c>
       <c r="R24">
-        <v>1.327355936288145</v>
+        <v>0.7342702056749754</v>
       </c>
       <c r="S24">
-        <v>1.327355936288145</v>
+        <v>0.7342702056749754</v>
       </c>
       <c r="T24">
-        <v>1.193245555479227</v>
+        <v>0.8087205061412738</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1130292872609318</v>
+        <v>0.4737304055118667</v>
       </c>
       <c r="D25">
-        <v>4.102775723979869</v>
+        <v>0.6839215333004276</v>
       </c>
       <c r="E25">
-        <v>0.005498949930406612</v>
+        <v>1.02046059657031</v>
       </c>
       <c r="F25">
-        <v>1.250686388972495</v>
+        <v>1.147339775608283</v>
       </c>
       <c r="G25">
-        <v>1.832888417990372</v>
+        <v>1.351068282767972</v>
       </c>
       <c r="H25">
-        <v>-3.794840885238102E-05</v>
+        <v>0.3218313991703864</v>
       </c>
       <c r="I25">
-        <v>0.1130292872609318</v>
+        <v>0.4737304055118667</v>
       </c>
       <c r="J25">
-        <v>-3.794840885238102E-05</v>
+        <v>0.3218313991703864</v>
       </c>
       <c r="K25">
-        <v>0.1130292872609318</v>
+        <v>0.4737304055118667</v>
       </c>
       <c r="L25">
-        <v>1.832888417990372</v>
+        <v>1.351068282767972</v>
       </c>
       <c r="M25">
-        <v>0.9164252347907598</v>
+        <v>0.836449840969179</v>
       </c>
       <c r="N25">
-        <v>0.9164252347907598</v>
+        <v>0.836449840969179</v>
       </c>
       <c r="O25">
-        <v>0.6127831398373087</v>
+        <v>0.8977867595028893</v>
       </c>
       <c r="P25">
-        <v>0.6486265856141504</v>
+        <v>0.7155433624834081</v>
       </c>
       <c r="Q25">
-        <v>0.6486265856141504</v>
+        <v>0.7155433624834083</v>
       </c>
       <c r="R25">
-        <v>0.5147272610258458</v>
+        <v>0.6550901232405228</v>
       </c>
       <c r="S25">
-        <v>0.5147272610258458</v>
+        <v>0.6550901232405228</v>
       </c>
       <c r="T25">
-        <v>1.217473469954204</v>
+        <v>0.8330586654882076</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.486216094593838</v>
+        <v>1.552298692499595</v>
       </c>
       <c r="D26">
-        <v>0.1235815129862915</v>
+        <v>1.5747027242848</v>
       </c>
       <c r="E26">
-        <v>0.3225242475568116</v>
+        <v>1.034762081401286</v>
       </c>
       <c r="F26">
-        <v>1.543102081820894</v>
+        <v>0.792883474536294</v>
       </c>
       <c r="G26">
-        <v>1.369242230548035</v>
+        <v>0.4915436637177757</v>
       </c>
       <c r="H26">
-        <v>0.01444413321375922</v>
+        <v>1.713282696435615</v>
       </c>
       <c r="I26">
-        <v>1.486216094593838</v>
+        <v>1.552298692499595</v>
       </c>
       <c r="J26">
-        <v>0.01444413321375922</v>
+        <v>1.713282696435615</v>
       </c>
       <c r="K26">
-        <v>1.486216094593838</v>
+        <v>1.552298692499595</v>
       </c>
       <c r="L26">
-        <v>1.369242230548035</v>
+        <v>0.4915436637177757</v>
       </c>
       <c r="M26">
-        <v>0.6918431818808969</v>
+        <v>1.102413180076695</v>
       </c>
       <c r="N26">
-        <v>0.6918431818808969</v>
+        <v>1.102413180076695</v>
       </c>
       <c r="O26">
-        <v>0.5687368704395351</v>
+        <v>1.079862813851559</v>
       </c>
       <c r="P26">
-        <v>0.9566341527852106</v>
+        <v>1.252375017550995</v>
       </c>
       <c r="Q26">
-        <v>0.9566341527852106</v>
+        <v>1.252375017550995</v>
       </c>
       <c r="R26">
-        <v>1.089029638237367</v>
+        <v>1.327355936288145</v>
       </c>
       <c r="S26">
-        <v>1.089029638237367</v>
+        <v>1.327355936288145</v>
       </c>
       <c r="T26">
-        <v>0.8098517167866048</v>
+        <v>1.193245555479227</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.038270028101423</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="D27">
-        <v>1.278573822860358</v>
+        <v>4.102775723979869</v>
       </c>
       <c r="E27">
-        <v>1.049442799052001</v>
+        <v>0.005498949930406612</v>
       </c>
       <c r="F27">
-        <v>0.9209271372953872</v>
+        <v>1.250686388972495</v>
       </c>
       <c r="G27">
-        <v>1.078041048207918</v>
+        <v>1.832888417990372</v>
       </c>
       <c r="H27">
-        <v>0.5824804053470186</v>
+        <v>-3.794840885238102E-05</v>
       </c>
       <c r="I27">
-        <v>1.038270028101423</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="J27">
-        <v>0.5824804053470186</v>
+        <v>-3.794840885238102E-05</v>
       </c>
       <c r="K27">
-        <v>1.038270028101423</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="L27">
-        <v>1.078041048207918</v>
+        <v>1.832888417990372</v>
       </c>
       <c r="M27">
-        <v>0.8302607267774684</v>
+        <v>0.9164252347907598</v>
       </c>
       <c r="N27">
-        <v>0.8302607267774684</v>
+        <v>0.9164252347907598</v>
       </c>
       <c r="O27">
-        <v>0.9033214175356461</v>
+        <v>0.6127831398373087</v>
       </c>
       <c r="P27">
-        <v>0.89959716055212</v>
+        <v>0.6486265856141504</v>
       </c>
       <c r="Q27">
-        <v>0.89959716055212</v>
+        <v>0.6486265856141504</v>
       </c>
       <c r="R27">
-        <v>0.9342653774394458</v>
+        <v>0.5147272610258458</v>
       </c>
       <c r="S27">
-        <v>0.9342653774394458</v>
+        <v>0.5147272610258458</v>
       </c>
       <c r="T27">
-        <v>0.9912892068106846</v>
+        <v>1.217473469954204</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9661390706272134</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="D28">
-        <v>1.443273768995353</v>
+        <v>0.1235815129862915</v>
       </c>
       <c r="E28">
-        <v>0.8299243044582251</v>
+        <v>0.3225242475568116</v>
       </c>
       <c r="F28">
-        <v>0.8919353948055667</v>
+        <v>1.543102081820894</v>
       </c>
       <c r="G28">
-        <v>1.142809982904686</v>
+        <v>1.369242230548035</v>
       </c>
       <c r="H28">
-        <v>1.174775856830051</v>
+        <v>0.01444413321375922</v>
       </c>
       <c r="I28">
-        <v>0.9661390706272134</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="J28">
-        <v>1.174775856830051</v>
+        <v>0.01444413321375922</v>
       </c>
       <c r="K28">
-        <v>0.9661390706272134</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="L28">
-        <v>1.142809982904686</v>
+        <v>1.369242230548035</v>
       </c>
       <c r="M28">
-        <v>1.158792919867369</v>
+        <v>0.6918431818808969</v>
       </c>
       <c r="N28">
-        <v>1.158792919867369</v>
+        <v>0.6918431818808969</v>
       </c>
       <c r="O28">
-        <v>1.049170048064321</v>
+        <v>0.5687368704395351</v>
       </c>
       <c r="P28">
-        <v>1.09457497012065</v>
+        <v>0.9566341527852106</v>
       </c>
       <c r="Q28">
-        <v>1.09457497012065</v>
+        <v>0.9566341527852106</v>
       </c>
       <c r="R28">
-        <v>1.062465995247291</v>
+        <v>1.089029638237367</v>
       </c>
       <c r="S28">
-        <v>1.062465995247291</v>
+        <v>1.089029638237367</v>
       </c>
       <c r="T28">
-        <v>1.074809729770183</v>
+        <v>0.8098517167866048</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="D29">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="E29">
+        <v>1.049442799052001</v>
+      </c>
+      <c r="F29">
+        <v>0.9209271372953872</v>
+      </c>
+      <c r="G29">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="H29">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="I29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="J29">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="K29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="L29">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="M29">
+        <v>0.8302607267774684</v>
+      </c>
+      <c r="N29">
+        <v>0.8302607267774684</v>
+      </c>
+      <c r="O29">
+        <v>0.9033214175356461</v>
+      </c>
+      <c r="P29">
+        <v>0.89959716055212</v>
+      </c>
+      <c r="Q29">
+        <v>0.89959716055212</v>
+      </c>
+      <c r="R29">
+        <v>0.9342653774394458</v>
+      </c>
+      <c r="S29">
+        <v>0.9342653774394458</v>
+      </c>
+      <c r="T29">
+        <v>0.9912892068106846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="D30">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="E30">
+        <v>0.8299243044582251</v>
+      </c>
+      <c r="F30">
+        <v>0.8919353948055667</v>
+      </c>
+      <c r="G30">
+        <v>1.142809982904686</v>
+      </c>
+      <c r="H30">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="I30">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="J30">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="K30">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="L30">
+        <v>1.142809982904686</v>
+      </c>
+      <c r="M30">
+        <v>1.158792919867369</v>
+      </c>
+      <c r="N30">
+        <v>1.158792919867369</v>
+      </c>
+      <c r="O30">
+        <v>1.049170048064321</v>
+      </c>
+      <c r="P30">
+        <v>1.09457497012065</v>
+      </c>
+      <c r="Q30">
+        <v>1.09457497012065</v>
+      </c>
+      <c r="R30">
+        <v>1.062465995247291</v>
+      </c>
+      <c r="S30">
+        <v>1.062465995247291</v>
+      </c>
+      <c r="T30">
+        <v>1.074809729770183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.292672764417832</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2.424300463459785</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9673611306372097</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.5665929742646039</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.6120453984500327</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>2.28730743657002</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.292672764417832</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>2.28730743657002</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.292672764417832</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.6120453984500327</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.449676417510027</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.449676417510027</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.288904655219088</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.397341866479295</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.397341866479295</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.371174590963929</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.371174590963929</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.358380027966581</v>
       </c>
     </row>
